--- a/kcbp_cgal_cuda/Release/DynamicCDAnalysis.xlsx
+++ b/kcbp_cgal_cuda/Release/DynamicCDAnalysis.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KDOP-K24" sheetId="1" r:id="rId1"/>
     <sheet name="KCBP-K24-M2" sheetId="2" r:id="rId2"/>
     <sheet name="KCBP-K24-M10" sheetId="3" r:id="rId3"/>
+    <sheet name="K46-M10" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
   <si>
     <t>n</t>
   </si>
@@ -174,6 +175,26 @@
     <t>CDtime(GJK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Bunny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDtime(AABB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buuda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDtime(AABB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDtime(GJK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -264,9 +285,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +293,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -1996,14 +2017,14 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
@@ -4212,87 +4233,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
+    <row r="39" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
         <v>700</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>6.8</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>186.8</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>237.2</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>10</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>5</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <v>10.4</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>231.8</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <v>700</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <v>7.4</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <v>187</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="6">
         <v>231.8</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="6">
         <v>10</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="6">
         <v>5</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="6">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="S39" s="7">
+      <c r="S39" s="6">
         <v>800</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="6">
         <v>7</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="6">
         <v>192.8</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="6">
         <v>147.19999999999999</v>
       </c>
-      <c r="W39" s="7">
+      <c r="W39" s="6">
         <v>13</v>
       </c>
-      <c r="X39" s="7">
+      <c r="X39" s="6">
         <v>10</v>
       </c>
-      <c r="Z39" s="7">
+      <c r="Z39" s="6">
         <v>800</v>
       </c>
-      <c r="AA39" s="7">
+      <c r="AA39" s="6">
         <v>7.8</v>
       </c>
-      <c r="AB39" s="7">
+      <c r="AB39" s="6">
         <v>192.2</v>
       </c>
-      <c r="AC39" s="7">
+      <c r="AC39" s="6">
         <v>138</v>
       </c>
-      <c r="AD39" s="7">
+      <c r="AD39" s="6">
         <v>13</v>
       </c>
-      <c r="AE39" s="7">
+      <c r="AE39" s="6">
         <v>10</v>
       </c>
     </row>
@@ -5642,8 +5663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8169,4 +8190,2331 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>3.6</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2.8</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L3">
+        <v>101.4</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>15.4</v>
+      </c>
+      <c r="C4">
+        <v>103.2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>2.6</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>17.2</v>
+      </c>
+      <c r="L4">
+        <v>102</v>
+      </c>
+      <c r="M4">
+        <v>2.6</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>14.6</v>
+      </c>
+      <c r="C5">
+        <v>103.8</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>8.4</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>19.2</v>
+      </c>
+      <c r="L5">
+        <v>103.6</v>
+      </c>
+      <c r="M5">
+        <v>8.4</v>
+      </c>
+      <c r="N5">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>13.4</v>
+      </c>
+      <c r="C6">
+        <v>102.4</v>
+      </c>
+      <c r="D6">
+        <v>53.6</v>
+      </c>
+      <c r="E6">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>47.4</v>
+      </c>
+      <c r="H6">
+        <v>15.8</v>
+      </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="K6">
+        <v>15.8</v>
+      </c>
+      <c r="L6">
+        <v>101.8</v>
+      </c>
+      <c r="M6">
+        <v>15.8</v>
+      </c>
+      <c r="N6">
+        <v>49</v>
+      </c>
+      <c r="O6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>18.2</v>
+      </c>
+      <c r="C7">
+        <v>103.4</v>
+      </c>
+      <c r="D7">
+        <v>82.4</v>
+      </c>
+      <c r="E7">
+        <v>66</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>72.2</v>
+      </c>
+      <c r="H7">
+        <v>20.2</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>17.8</v>
+      </c>
+      <c r="L7">
+        <v>101.6</v>
+      </c>
+      <c r="M7">
+        <v>20.2</v>
+      </c>
+      <c r="N7">
+        <v>66</v>
+      </c>
+      <c r="O7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8">
+        <v>17.8</v>
+      </c>
+      <c r="C8">
+        <v>103.2</v>
+      </c>
+      <c r="D8">
+        <v>102.8</v>
+      </c>
+      <c r="E8">
+        <v>105</v>
+      </c>
+      <c r="F8">
+        <v>82</v>
+      </c>
+      <c r="G8">
+        <v>95.2</v>
+      </c>
+      <c r="H8">
+        <v>31.6</v>
+      </c>
+      <c r="J8">
+        <v>400</v>
+      </c>
+      <c r="K8">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L8">
+        <v>101.6</v>
+      </c>
+      <c r="M8">
+        <v>31.6</v>
+      </c>
+      <c r="N8">
+        <v>105</v>
+      </c>
+      <c r="O8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>500</v>
+      </c>
+      <c r="B9">
+        <v>15.6</v>
+      </c>
+      <c r="C9">
+        <v>104.8</v>
+      </c>
+      <c r="D9">
+        <v>138.6</v>
+      </c>
+      <c r="E9">
+        <v>133</v>
+      </c>
+      <c r="F9">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>120.4</v>
+      </c>
+      <c r="H9">
+        <v>35.4</v>
+      </c>
+      <c r="J9">
+        <v>500</v>
+      </c>
+      <c r="K9">
+        <v>20.6</v>
+      </c>
+      <c r="L9">
+        <v>105</v>
+      </c>
+      <c r="M9">
+        <v>35.4</v>
+      </c>
+      <c r="N9">
+        <v>133</v>
+      </c>
+      <c r="O9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>600</v>
+      </c>
+      <c r="B10">
+        <v>14.6</v>
+      </c>
+      <c r="C10">
+        <v>103.2</v>
+      </c>
+      <c r="D10">
+        <v>185.8</v>
+      </c>
+      <c r="E10">
+        <v>178</v>
+      </c>
+      <c r="F10">
+        <v>139</v>
+      </c>
+      <c r="G10">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="H10">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="J10">
+        <v>600</v>
+      </c>
+      <c r="K10">
+        <v>12.8</v>
+      </c>
+      <c r="L10">
+        <v>102.4</v>
+      </c>
+      <c r="M10">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="N10">
+        <v>178</v>
+      </c>
+      <c r="O10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>700</v>
+      </c>
+      <c r="B11">
+        <v>15.6</v>
+      </c>
+      <c r="C11">
+        <v>103.2</v>
+      </c>
+      <c r="D11">
+        <v>205</v>
+      </c>
+      <c r="E11">
+        <v>179</v>
+      </c>
+      <c r="F11">
+        <v>139</v>
+      </c>
+      <c r="G11">
+        <v>169.8</v>
+      </c>
+      <c r="H11">
+        <v>66</v>
+      </c>
+      <c r="J11">
+        <v>700</v>
+      </c>
+      <c r="K11">
+        <v>17.8</v>
+      </c>
+      <c r="L11">
+        <v>102</v>
+      </c>
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>179</v>
+      </c>
+      <c r="O11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>800</v>
+      </c>
+      <c r="B12">
+        <v>25.6</v>
+      </c>
+      <c r="C12">
+        <v>102.2</v>
+      </c>
+      <c r="D12">
+        <v>202.6</v>
+      </c>
+      <c r="E12">
+        <v>157</v>
+      </c>
+      <c r="F12">
+        <v>122</v>
+      </c>
+      <c r="G12">
+        <v>189</v>
+      </c>
+      <c r="H12">
+        <v>49.6</v>
+      </c>
+      <c r="J12">
+        <v>800</v>
+      </c>
+      <c r="K12">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L12">
+        <v>101.8</v>
+      </c>
+      <c r="M12">
+        <v>49.6</v>
+      </c>
+      <c r="N12">
+        <v>157</v>
+      </c>
+      <c r="O12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>900</v>
+      </c>
+      <c r="B13">
+        <v>14.6</v>
+      </c>
+      <c r="C13">
+        <v>104</v>
+      </c>
+      <c r="D13">
+        <v>237</v>
+      </c>
+      <c r="E13">
+        <v>191</v>
+      </c>
+      <c r="F13">
+        <v>161</v>
+      </c>
+      <c r="G13">
+        <v>216.8</v>
+      </c>
+      <c r="H13">
+        <v>59.6</v>
+      </c>
+      <c r="J13">
+        <v>900</v>
+      </c>
+      <c r="K13">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L13">
+        <v>102.8</v>
+      </c>
+      <c r="M13">
+        <v>59.6</v>
+      </c>
+      <c r="N13">
+        <v>191</v>
+      </c>
+      <c r="O13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="B14">
+        <v>19.8</v>
+      </c>
+      <c r="C14">
+        <v>103.6</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="E14">
+        <v>250</v>
+      </c>
+      <c r="F14">
+        <v>209</v>
+      </c>
+      <c r="G14">
+        <v>243.4</v>
+      </c>
+      <c r="H14">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="J14">
+        <v>1000</v>
+      </c>
+      <c r="K14">
+        <v>12.8</v>
+      </c>
+      <c r="L14">
+        <v>101.4</v>
+      </c>
+      <c r="M14">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="N14">
+        <v>250</v>
+      </c>
+      <c r="O14">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>25.4</v>
+      </c>
+      <c r="C18">
+        <v>208.6</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2.6</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>25.4</v>
+      </c>
+      <c r="L18">
+        <v>208</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>22.8</v>
+      </c>
+      <c r="C19">
+        <v>208.6</v>
+      </c>
+      <c r="D19">
+        <v>6.4</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>12.2</v>
+      </c>
+      <c r="H19">
+        <v>3.2</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>21.2</v>
+      </c>
+      <c r="L19">
+        <v>205.8</v>
+      </c>
+      <c r="M19">
+        <v>3.2</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>32.4</v>
+      </c>
+      <c r="C20">
+        <v>207.4</v>
+      </c>
+      <c r="D20">
+        <v>31.2</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>25.2</v>
+      </c>
+      <c r="H20">
+        <v>20.8</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>25.2</v>
+      </c>
+      <c r="L20">
+        <v>204.8</v>
+      </c>
+      <c r="M20">
+        <v>20.8</v>
+      </c>
+      <c r="N20">
+        <v>27</v>
+      </c>
+      <c r="O20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>21.4</v>
+      </c>
+      <c r="C21">
+        <v>206.8</v>
+      </c>
+      <c r="D21">
+        <v>52.6</v>
+      </c>
+      <c r="E21">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>39</v>
+      </c>
+      <c r="G21">
+        <v>50.8</v>
+      </c>
+      <c r="H21">
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <v>200</v>
+      </c>
+      <c r="K21">
+        <v>22</v>
+      </c>
+      <c r="L21">
+        <v>205.8</v>
+      </c>
+      <c r="M21">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>39</v>
+      </c>
+      <c r="O21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>24.4</v>
+      </c>
+      <c r="C22">
+        <v>208.2</v>
+      </c>
+      <c r="D22">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E22">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>52</v>
+      </c>
+      <c r="G22">
+        <v>74.8</v>
+      </c>
+      <c r="H22">
+        <v>35.6</v>
+      </c>
+      <c r="J22">
+        <v>300</v>
+      </c>
+      <c r="K22">
+        <v>26</v>
+      </c>
+      <c r="L22">
+        <v>205.8</v>
+      </c>
+      <c r="M22">
+        <v>35.6</v>
+      </c>
+      <c r="N22">
+        <v>54</v>
+      </c>
+      <c r="O22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>400</v>
+      </c>
+      <c r="B23">
+        <v>23.2</v>
+      </c>
+      <c r="C23">
+        <v>211.2</v>
+      </c>
+      <c r="D23">
+        <v>93.8</v>
+      </c>
+      <c r="E23">
+        <v>76</v>
+      </c>
+      <c r="F23">
+        <v>70</v>
+      </c>
+      <c r="G23">
+        <v>96.2</v>
+      </c>
+      <c r="H23">
+        <v>45.2</v>
+      </c>
+      <c r="J23">
+        <v>400</v>
+      </c>
+      <c r="K23">
+        <v>23.8</v>
+      </c>
+      <c r="L23">
+        <v>209.2</v>
+      </c>
+      <c r="M23">
+        <v>45.2</v>
+      </c>
+      <c r="N23">
+        <v>76</v>
+      </c>
+      <c r="O23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>500</v>
+      </c>
+      <c r="B24">
+        <v>32.6</v>
+      </c>
+      <c r="C24">
+        <v>207.6</v>
+      </c>
+      <c r="D24">
+        <v>129.6</v>
+      </c>
+      <c r="E24">
+        <v>109</v>
+      </c>
+      <c r="F24">
+        <v>104</v>
+      </c>
+      <c r="G24">
+        <v>121.8</v>
+      </c>
+      <c r="H24">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+      <c r="K24">
+        <v>25.6</v>
+      </c>
+      <c r="L24">
+        <v>204.8</v>
+      </c>
+      <c r="M24">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="N24">
+        <v>109</v>
+      </c>
+      <c r="O24">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>600</v>
+      </c>
+      <c r="B25">
+        <v>25.8</v>
+      </c>
+      <c r="C25">
+        <v>208.8</v>
+      </c>
+      <c r="D25">
+        <v>181.2</v>
+      </c>
+      <c r="E25">
+        <v>164</v>
+      </c>
+      <c r="F25">
+        <v>158</v>
+      </c>
+      <c r="G25">
+        <v>151.4</v>
+      </c>
+      <c r="H25">
+        <v>110.4</v>
+      </c>
+      <c r="J25">
+        <v>600</v>
+      </c>
+      <c r="K25">
+        <v>27.4</v>
+      </c>
+      <c r="L25">
+        <v>206</v>
+      </c>
+      <c r="M25">
+        <v>110.4</v>
+      </c>
+      <c r="N25">
+        <v>163</v>
+      </c>
+      <c r="O25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>700</v>
+      </c>
+      <c r="B26">
+        <v>27.8</v>
+      </c>
+      <c r="C26">
+        <v>208.6</v>
+      </c>
+      <c r="D26">
+        <v>182.6</v>
+      </c>
+      <c r="E26">
+        <v>162</v>
+      </c>
+      <c r="F26">
+        <v>158</v>
+      </c>
+      <c r="G26">
+        <v>171.2</v>
+      </c>
+      <c r="H26">
+        <v>94</v>
+      </c>
+      <c r="J26">
+        <v>700</v>
+      </c>
+      <c r="K26">
+        <v>24</v>
+      </c>
+      <c r="L26">
+        <v>205.6</v>
+      </c>
+      <c r="M26">
+        <v>94</v>
+      </c>
+      <c r="N26">
+        <v>159</v>
+      </c>
+      <c r="O26">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>800</v>
+      </c>
+      <c r="B27">
+        <v>25.2</v>
+      </c>
+      <c r="C27">
+        <v>207.2</v>
+      </c>
+      <c r="D27">
+        <v>171</v>
+      </c>
+      <c r="E27">
+        <v>143</v>
+      </c>
+      <c r="F27">
+        <v>132</v>
+      </c>
+      <c r="G27">
+        <v>193.4</v>
+      </c>
+      <c r="H27">
+        <v>76</v>
+      </c>
+      <c r="J27">
+        <v>800</v>
+      </c>
+      <c r="K27">
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <v>208.2</v>
+      </c>
+      <c r="M27">
+        <v>76</v>
+      </c>
+      <c r="N27">
+        <v>140</v>
+      </c>
+      <c r="O27">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>900</v>
+      </c>
+      <c r="B28">
+        <v>24.8</v>
+      </c>
+      <c r="C28">
+        <v>208.4</v>
+      </c>
+      <c r="D28">
+        <v>210</v>
+      </c>
+      <c r="E28">
+        <v>180</v>
+      </c>
+      <c r="F28">
+        <v>173</v>
+      </c>
+      <c r="G28">
+        <v>222.8</v>
+      </c>
+      <c r="H28">
+        <v>108.4</v>
+      </c>
+      <c r="J28">
+        <v>900</v>
+      </c>
+      <c r="K28">
+        <v>20.2</v>
+      </c>
+      <c r="L28">
+        <v>205.8</v>
+      </c>
+      <c r="M28">
+        <v>108.4</v>
+      </c>
+      <c r="N28">
+        <v>178</v>
+      </c>
+      <c r="O28">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>28.8</v>
+      </c>
+      <c r="C29">
+        <v>209.2</v>
+      </c>
+      <c r="D29">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="E29">
+        <v>239</v>
+      </c>
+      <c r="F29">
+        <v>227</v>
+      </c>
+      <c r="G29">
+        <v>249.4</v>
+      </c>
+      <c r="H29">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="J29">
+        <v>1000</v>
+      </c>
+      <c r="K29">
+        <v>23.2</v>
+      </c>
+      <c r="L29">
+        <v>212</v>
+      </c>
+      <c r="M29">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="N29">
+        <v>238</v>
+      </c>
+      <c r="O29">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>45.2</v>
+      </c>
+      <c r="C33">
+        <v>1752</v>
+      </c>
+      <c r="D33">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2.4</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>44.6</v>
+      </c>
+      <c r="L33">
+        <v>1716.8</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>44.8</v>
+      </c>
+      <c r="C34">
+        <v>1746.8</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>11.6</v>
+      </c>
+      <c r="H34">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J34">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>45.2</v>
+      </c>
+      <c r="L34">
+        <v>1716.2</v>
+      </c>
+      <c r="M34">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>45.6</v>
+      </c>
+      <c r="C35">
+        <v>1754.2</v>
+      </c>
+      <c r="D35">
+        <v>187.8</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>31.4</v>
+      </c>
+      <c r="H35">
+        <v>168.8</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>45</v>
+      </c>
+      <c r="L35">
+        <v>1720.6</v>
+      </c>
+      <c r="M35">
+        <v>168.8</v>
+      </c>
+      <c r="N35">
+        <v>17</v>
+      </c>
+      <c r="O35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>200</v>
+      </c>
+      <c r="B36">
+        <v>44.2</v>
+      </c>
+      <c r="C36">
+        <v>1725.8</v>
+      </c>
+      <c r="D36">
+        <v>557.20000000000005</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>27</v>
+      </c>
+      <c r="G36">
+        <v>50.4</v>
+      </c>
+      <c r="H36">
+        <v>515</v>
+      </c>
+      <c r="J36">
+        <v>200</v>
+      </c>
+      <c r="K36">
+        <v>44.6</v>
+      </c>
+      <c r="L36">
+        <v>1729.8</v>
+      </c>
+      <c r="M36">
+        <v>515</v>
+      </c>
+      <c r="N36">
+        <v>30</v>
+      </c>
+      <c r="O36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>300</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>1729.6</v>
+      </c>
+      <c r="D37">
+        <v>416.4</v>
+      </c>
+      <c r="E37">
+        <v>34</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>75.8</v>
+      </c>
+      <c r="H37">
+        <v>357.6</v>
+      </c>
+      <c r="J37">
+        <v>300</v>
+      </c>
+      <c r="K37">
+        <v>44.8</v>
+      </c>
+      <c r="L37">
+        <v>1717.2</v>
+      </c>
+      <c r="M37">
+        <v>357.6</v>
+      </c>
+      <c r="N37">
+        <v>34</v>
+      </c>
+      <c r="O37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>400</v>
+      </c>
+      <c r="B38">
+        <v>46.2</v>
+      </c>
+      <c r="C38">
+        <v>1746</v>
+      </c>
+      <c r="D38">
+        <v>848.8</v>
+      </c>
+      <c r="E38">
+        <v>52</v>
+      </c>
+      <c r="F38">
+        <v>42</v>
+      </c>
+      <c r="G38">
+        <v>99.8</v>
+      </c>
+      <c r="H38">
+        <v>785.2</v>
+      </c>
+      <c r="J38">
+        <v>400</v>
+      </c>
+      <c r="K38">
+        <v>45.2</v>
+      </c>
+      <c r="L38">
+        <v>1722.6</v>
+      </c>
+      <c r="M38">
+        <v>785.2</v>
+      </c>
+      <c r="N38">
+        <v>52</v>
+      </c>
+      <c r="O38">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>500</v>
+      </c>
+      <c r="B39">
+        <v>44.8</v>
+      </c>
+      <c r="C39">
+        <v>1715.8</v>
+      </c>
+      <c r="D39">
+        <v>1286.4000000000001</v>
+      </c>
+      <c r="E39">
+        <v>77</v>
+      </c>
+      <c r="F39">
+        <v>61</v>
+      </c>
+      <c r="G39">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="H39">
+        <v>1131</v>
+      </c>
+      <c r="J39">
+        <v>500</v>
+      </c>
+      <c r="K39">
+        <v>44.8</v>
+      </c>
+      <c r="L39">
+        <v>1718</v>
+      </c>
+      <c r="M39">
+        <v>1131</v>
+      </c>
+      <c r="N39">
+        <v>76</v>
+      </c>
+      <c r="O39">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>600</v>
+      </c>
+      <c r="B40">
+        <v>44.2</v>
+      </c>
+      <c r="C40">
+        <v>1718.4</v>
+      </c>
+      <c r="D40">
+        <v>1741.6</v>
+      </c>
+      <c r="E40">
+        <v>119</v>
+      </c>
+      <c r="F40">
+        <v>103</v>
+      </c>
+      <c r="G40">
+        <v>189</v>
+      </c>
+      <c r="H40">
+        <v>1642.4</v>
+      </c>
+      <c r="J40">
+        <v>600</v>
+      </c>
+      <c r="K40">
+        <v>44.6</v>
+      </c>
+      <c r="L40">
+        <v>1725.6</v>
+      </c>
+      <c r="M40">
+        <v>1642.4</v>
+      </c>
+      <c r="N40">
+        <v>119</v>
+      </c>
+      <c r="O40">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>700</v>
+      </c>
+      <c r="B41">
+        <v>44.4</v>
+      </c>
+      <c r="C41">
+        <v>1730</v>
+      </c>
+      <c r="D41">
+        <v>1585.4</v>
+      </c>
+      <c r="E41">
+        <v>111</v>
+      </c>
+      <c r="F41">
+        <v>92</v>
+      </c>
+      <c r="G41">
+        <v>189</v>
+      </c>
+      <c r="H41">
+        <v>1441.2</v>
+      </c>
+      <c r="J41">
+        <v>700</v>
+      </c>
+      <c r="K41">
+        <v>45.6</v>
+      </c>
+      <c r="L41">
+        <v>1715.2</v>
+      </c>
+      <c r="M41">
+        <v>1441.2</v>
+      </c>
+      <c r="N41">
+        <v>111</v>
+      </c>
+      <c r="O41">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>800</v>
+      </c>
+      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>1759</v>
+      </c>
+      <c r="D42">
+        <v>1770.2</v>
+      </c>
+      <c r="E42">
+        <v>101</v>
+      </c>
+      <c r="F42">
+        <v>80</v>
+      </c>
+      <c r="G42">
+        <v>198.4</v>
+      </c>
+      <c r="H42">
+        <v>1657.6</v>
+      </c>
+      <c r="J42">
+        <v>800</v>
+      </c>
+      <c r="K42">
+        <v>47</v>
+      </c>
+      <c r="L42">
+        <v>1757.6</v>
+      </c>
+      <c r="M42">
+        <v>1657.6</v>
+      </c>
+      <c r="N42">
+        <v>101</v>
+      </c>
+      <c r="O42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>900</v>
+      </c>
+      <c r="B43">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>1717.2</v>
+      </c>
+      <c r="D43">
+        <v>2582.1999999999998</v>
+      </c>
+      <c r="E43">
+        <v>139</v>
+      </c>
+      <c r="F43">
+        <v>122</v>
+      </c>
+      <c r="G43">
+        <v>243.8</v>
+      </c>
+      <c r="H43">
+        <v>2444</v>
+      </c>
+      <c r="J43">
+        <v>900</v>
+      </c>
+      <c r="K43">
+        <v>44.6</v>
+      </c>
+      <c r="L43">
+        <v>1732.6</v>
+      </c>
+      <c r="M43">
+        <v>2444</v>
+      </c>
+      <c r="N43">
+        <v>139</v>
+      </c>
+      <c r="O43">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>1000</v>
+      </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>1724.4</v>
+      </c>
+      <c r="D44">
+        <v>3825.4</v>
+      </c>
+      <c r="E44">
+        <v>167</v>
+      </c>
+      <c r="F44">
+        <v>141</v>
+      </c>
+      <c r="G44">
+        <v>262.8</v>
+      </c>
+      <c r="H44">
+        <v>3642.8</v>
+      </c>
+      <c r="J44">
+        <v>1000</v>
+      </c>
+      <c r="K44">
+        <v>44.4</v>
+      </c>
+      <c r="L44">
+        <v>1735.8</v>
+      </c>
+      <c r="M44">
+        <v>3642.8</v>
+      </c>
+      <c r="N44">
+        <v>166</v>
+      </c>
+      <c r="O44">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>52.4</v>
+      </c>
+      <c r="C48">
+        <v>2255</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>52.4</v>
+      </c>
+      <c r="L48">
+        <v>2239</v>
+      </c>
+      <c r="M48">
+        <v>0.2</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>52.2</v>
+      </c>
+      <c r="C49">
+        <v>2246</v>
+      </c>
+      <c r="D49">
+        <v>4.8</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <v>51.8</v>
+      </c>
+      <c r="L49">
+        <v>2238.6</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>52.4</v>
+      </c>
+      <c r="C50">
+        <v>2240.1999999999998</v>
+      </c>
+      <c r="D50">
+        <v>22.4</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>25.4</v>
+      </c>
+      <c r="H50">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>52.2</v>
+      </c>
+      <c r="L50">
+        <v>2285</v>
+      </c>
+      <c r="M50">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N50">
+        <v>9</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>200</v>
+      </c>
+      <c r="B51">
+        <v>52.6</v>
+      </c>
+      <c r="C51">
+        <v>2243.8000000000002</v>
+      </c>
+      <c r="D51">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>49.2</v>
+      </c>
+      <c r="H51">
+        <v>7.4</v>
+      </c>
+      <c r="J51">
+        <v>200</v>
+      </c>
+      <c r="K51">
+        <v>52.6</v>
+      </c>
+      <c r="L51">
+        <v>2244</v>
+      </c>
+      <c r="M51">
+        <v>7.4</v>
+      </c>
+      <c r="N51">
+        <v>10</v>
+      </c>
+      <c r="O51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>300</v>
+      </c>
+      <c r="B52">
+        <v>51.6</v>
+      </c>
+      <c r="C52">
+        <v>2237.1999999999998</v>
+      </c>
+      <c r="D52">
+        <v>56.2</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="H52">
+        <v>9.4</v>
+      </c>
+      <c r="J52">
+        <v>300</v>
+      </c>
+      <c r="K52">
+        <v>52</v>
+      </c>
+      <c r="L52">
+        <v>2238.8000000000002</v>
+      </c>
+      <c r="M52">
+        <v>9.4</v>
+      </c>
+      <c r="N52">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>400</v>
+      </c>
+      <c r="B53">
+        <v>51.6</v>
+      </c>
+      <c r="C53">
+        <v>2252.6</v>
+      </c>
+      <c r="D53">
+        <v>71.8</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>92</v>
+      </c>
+      <c r="H53">
+        <v>13.2</v>
+      </c>
+      <c r="J53">
+        <v>400</v>
+      </c>
+      <c r="K53">
+        <v>52.4</v>
+      </c>
+      <c r="L53">
+        <v>2280.4</v>
+      </c>
+      <c r="M53">
+        <v>13.2</v>
+      </c>
+      <c r="N53">
+        <v>15</v>
+      </c>
+      <c r="O53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>500</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>2252</v>
+      </c>
+      <c r="D54">
+        <v>88.6</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>122.2</v>
+      </c>
+      <c r="H54">
+        <v>9.4</v>
+      </c>
+      <c r="J54">
+        <v>500</v>
+      </c>
+      <c r="K54">
+        <v>52.4</v>
+      </c>
+      <c r="L54">
+        <v>2241.6</v>
+      </c>
+      <c r="M54">
+        <v>9.4</v>
+      </c>
+      <c r="N54">
+        <v>18</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>600</v>
+      </c>
+      <c r="B55">
+        <v>51.8</v>
+      </c>
+      <c r="C55">
+        <v>2290.4</v>
+      </c>
+      <c r="D55">
+        <v>147.4</v>
+      </c>
+      <c r="E55">
+        <v>32</v>
+      </c>
+      <c r="F55">
+        <v>13</v>
+      </c>
+      <c r="G55">
+        <v>142.4</v>
+      </c>
+      <c r="H55">
+        <v>37</v>
+      </c>
+      <c r="J55">
+        <v>600</v>
+      </c>
+      <c r="K55">
+        <v>52.6</v>
+      </c>
+      <c r="L55">
+        <v>2236.6</v>
+      </c>
+      <c r="M55">
+        <v>37</v>
+      </c>
+      <c r="N55">
+        <v>31</v>
+      </c>
+      <c r="O55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>700</v>
+      </c>
+      <c r="B56">
+        <v>53.6</v>
+      </c>
+      <c r="C56">
+        <v>2243.1999999999998</v>
+      </c>
+      <c r="D56">
+        <v>141.6</v>
+      </c>
+      <c r="E56">
+        <v>23</v>
+      </c>
+      <c r="F56">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="H56">
+        <v>22</v>
+      </c>
+      <c r="J56">
+        <v>700</v>
+      </c>
+      <c r="K56">
+        <v>52</v>
+      </c>
+      <c r="L56">
+        <v>2231.6</v>
+      </c>
+      <c r="M56">
+        <v>22</v>
+      </c>
+      <c r="N56">
+        <v>22</v>
+      </c>
+      <c r="O56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>800</v>
+      </c>
+      <c r="B57">
+        <v>51.8</v>
+      </c>
+      <c r="C57">
+        <v>2266</v>
+      </c>
+      <c r="D57">
+        <v>97.4</v>
+      </c>
+      <c r="E57">
+        <v>17</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>183</v>
+      </c>
+      <c r="H57">
+        <v>13.2</v>
+      </c>
+      <c r="J57">
+        <v>800</v>
+      </c>
+      <c r="K57">
+        <v>53</v>
+      </c>
+      <c r="L57">
+        <v>2246</v>
+      </c>
+      <c r="M57">
+        <v>13.2</v>
+      </c>
+      <c r="N57">
+        <v>17</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>900</v>
+      </c>
+      <c r="B58">
+        <v>51.8</v>
+      </c>
+      <c r="C58">
+        <v>2262.6</v>
+      </c>
+      <c r="D58">
+        <v>181.4</v>
+      </c>
+      <c r="E58">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>216.4</v>
+      </c>
+      <c r="H58">
+        <v>62.2</v>
+      </c>
+      <c r="J58">
+        <v>900</v>
+      </c>
+      <c r="K58">
+        <v>52.2</v>
+      </c>
+      <c r="L58">
+        <v>2241.8000000000002</v>
+      </c>
+      <c r="M58">
+        <v>62.2</v>
+      </c>
+      <c r="N58">
+        <v>39</v>
+      </c>
+      <c r="O58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>1000</v>
+      </c>
+      <c r="B59">
+        <v>52.2</v>
+      </c>
+      <c r="C59">
+        <v>2247</v>
+      </c>
+      <c r="D59">
+        <v>191</v>
+      </c>
+      <c r="E59">
+        <v>43</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>233.4</v>
+      </c>
+      <c r="H59">
+        <v>35.6</v>
+      </c>
+      <c r="J59">
+        <v>1000</v>
+      </c>
+      <c r="K59">
+        <v>51.6</v>
+      </c>
+      <c r="L59">
+        <v>2243.8000000000002</v>
+      </c>
+      <c r="M59">
+        <v>35.6</v>
+      </c>
+      <c r="N59">
+        <v>43</v>
+      </c>
+      <c r="O59">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/kcbp_cgal_cuda/Release/DynamicCDAnalysis.xlsx
+++ b/kcbp_cgal_cuda/Release/DynamicCDAnalysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KDOP-K24" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="63">
   <si>
     <t>n</t>
   </si>
@@ -195,6 +195,77 @@
     <t>CDtime(GJK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>HappyBuddha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy_buddha K46 M10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角网格数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dinosaur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Budda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy_buddha-k24-model2.log.stat</t>
+  </si>
+  <si>
+    <t>happy_buddha-k24-model10.log.stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand-k24-model10.patch.log.stat</t>
+  </si>
+  <si>
+    <t>hand-k24-model2.patch.log.stat</t>
+  </si>
+  <si>
+    <t>hand-k24-model2.log.stat</t>
+  </si>
+  <si>
+    <t>hand-k24-model10.log.stat.csv</t>
+  </si>
+  <si>
+    <t>相差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -288,10 +359,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -577,21 +648,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
+    <col min="9" max="9" width="9" style="2"/>
     <col min="12" max="12" width="11.125" customWidth="1"/>
     <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
@@ -625,7 +696,7 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -637,7 +708,7 @@
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K3" t="s">
@@ -675,7 +746,7 @@
       <c r="C4" s="2">
         <v>0.4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
@@ -687,7 +758,7 @@
       <c r="H4" s="1">
         <v>0.2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="K4">
@@ -725,7 +796,7 @@
       <c r="C5" s="2">
         <v>0.2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
@@ -737,7 +808,7 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="K5">
@@ -775,7 +846,7 @@
       <c r="C6" s="2">
         <v>1.6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
       <c r="F6" s="2">
@@ -787,7 +858,7 @@
       <c r="H6" s="1">
         <v>1.4</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="K6">
@@ -825,7 +896,7 @@
       <c r="C7" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
@@ -837,7 +908,7 @@
       <c r="H7" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="K7">
@@ -875,7 +946,7 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="2">
@@ -887,7 +958,7 @@
       <c r="H8" s="1">
         <v>3.6</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>2</v>
       </c>
       <c r="K8">
@@ -925,7 +996,7 @@
       <c r="C9" s="2">
         <v>4.2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="F9" s="2">
@@ -937,7 +1008,7 @@
       <c r="H9" s="1">
         <v>4.8</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>5</v>
       </c>
       <c r="K9">
@@ -975,7 +1046,7 @@
       <c r="C10" s="2">
         <v>5.4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>8</v>
       </c>
       <c r="F10" s="2">
@@ -987,7 +1058,7 @@
       <c r="H10" s="1">
         <v>6.2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>8</v>
       </c>
       <c r="K10">
@@ -1025,7 +1096,7 @@
       <c r="C11" s="2">
         <v>6.2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
       <c r="F11" s="2">
@@ -1037,7 +1108,7 @@
       <c r="H11" s="1">
         <v>6.8</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>11</v>
       </c>
       <c r="K11">
@@ -1075,7 +1146,7 @@
       <c r="C12" s="2">
         <v>8.4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>8</v>
       </c>
       <c r="F12" s="2">
@@ -1087,7 +1158,7 @@
       <c r="H12" s="1">
         <v>7.6</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>11</v>
       </c>
       <c r="K12">
@@ -1125,7 +1196,7 @@
       <c r="C13" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
       <c r="F13" s="2">
@@ -1137,7 +1208,7 @@
       <c r="H13" s="1">
         <v>9</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>10</v>
       </c>
       <c r="K13">
@@ -1175,7 +1246,7 @@
       <c r="C14" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>7</v>
       </c>
       <c r="F14" s="2">
@@ -1187,7 +1258,7 @@
       <c r="H14" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>9</v>
       </c>
       <c r="K14">
@@ -1225,7 +1296,7 @@
       <c r="C15" s="2">
         <v>11.4</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>17</v>
       </c>
       <c r="F15" s="2">
@@ -1237,7 +1308,7 @@
       <c r="H15" s="1">
         <v>12</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>16</v>
       </c>
       <c r="K15">
@@ -1298,7 +1369,7 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1310,7 +1381,7 @@
       <c r="H18" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K18" t="s">
@@ -1348,7 +1419,7 @@
       <c r="C19" s="2">
         <v>1.2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="2">
@@ -1360,7 +1431,7 @@
       <c r="H19">
         <v>1.6</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>3</v>
       </c>
       <c r="K19">
@@ -1398,7 +1469,7 @@
       <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="2">
@@ -1410,7 +1481,7 @@
       <c r="H20">
         <v>5.2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>7</v>
       </c>
       <c r="K20">
@@ -1448,7 +1519,7 @@
       <c r="C21" s="2">
         <v>10.6</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>21</v>
       </c>
       <c r="F21" s="2">
@@ -1460,7 +1531,7 @@
       <c r="H21">
         <v>10.4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>23</v>
       </c>
       <c r="K21">
@@ -1498,7 +1569,7 @@
       <c r="C22" s="2">
         <v>20.2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>40</v>
       </c>
       <c r="F22" s="2">
@@ -1510,7 +1581,7 @@
       <c r="H22">
         <v>21.6</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>36</v>
       </c>
       <c r="K22">
@@ -1548,7 +1619,7 @@
       <c r="C23" s="2">
         <v>30.4</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>55</v>
       </c>
       <c r="F23" s="2">
@@ -1560,7 +1631,7 @@
       <c r="H23">
         <v>31</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>49</v>
       </c>
       <c r="K23">
@@ -1598,7 +1669,7 @@
       <c r="C24" s="2">
         <v>40.6</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>82</v>
       </c>
       <c r="F24" s="2">
@@ -1610,7 +1681,7 @@
       <c r="H24">
         <v>41.6</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>66</v>
       </c>
       <c r="K24">
@@ -1648,7 +1719,7 @@
       <c r="C25" s="2">
         <v>50.8</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>104</v>
       </c>
       <c r="F25" s="2">
@@ -1660,7 +1731,7 @@
       <c r="H25">
         <v>53.8</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>100</v>
       </c>
       <c r="K25">
@@ -1698,7 +1769,7 @@
       <c r="C26" s="2">
         <v>61.6</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>139</v>
       </c>
       <c r="F26" s="2">
@@ -1710,7 +1781,7 @@
       <c r="H26">
         <v>64.8</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>150</v>
       </c>
       <c r="K26">
@@ -1748,7 +1819,7 @@
       <c r="C27" s="2">
         <v>71.2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>139</v>
       </c>
       <c r="F27" s="2">
@@ -1760,7 +1831,7 @@
       <c r="H27">
         <v>73.599999999999994</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>147</v>
       </c>
       <c r="K27">
@@ -1798,7 +1869,7 @@
       <c r="C28" s="2">
         <v>78.599999999999994</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>122</v>
       </c>
       <c r="F28" s="2">
@@ -1810,7 +1881,7 @@
       <c r="H28">
         <v>80.599999999999994</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>121</v>
       </c>
       <c r="K28">
@@ -1848,7 +1919,7 @@
       <c r="C29" s="2">
         <v>89.2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>161</v>
       </c>
       <c r="F29" s="2">
@@ -1860,7 +1931,7 @@
       <c r="H29">
         <v>92.6</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>162</v>
       </c>
       <c r="K29">
@@ -1898,7 +1969,7 @@
       <c r="C30" s="2">
         <v>100.4</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>209</v>
       </c>
       <c r="F30" s="2">
@@ -1910,7 +1981,7 @@
       <c r="H30">
         <v>109.4</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>210</v>
       </c>
       <c r="K30">
@@ -1963,7 +2034,7 @@
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1983,7 +2054,7 @@
       <c r="C36" s="2">
         <v>116.59166666666668</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>226.20000000000002</v>
       </c>
       <c r="E36" s="2">
@@ -2003,7 +2074,7 @@
       <c r="C37" s="2">
         <v>926.10000000000025</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>3732.4333333333329</v>
       </c>
       <c r="E37" s="2">
@@ -2016,63 +2087,7 @@
         <v>157446.51666666669</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="2">
-        <v>17.633333333333336</v>
-      </c>
-      <c r="D41" s="3">
-        <v>189.78333333333339</v>
-      </c>
-      <c r="E41" s="2">
-        <v>116.59166666666668</v>
-      </c>
-      <c r="F41" s="2">
-        <v>926.10000000000025</v>
-      </c>
-    </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="2">
-        <v>30.866666666666671</v>
-      </c>
-      <c r="D42" s="3">
-        <v>749.48333333333323</v>
-      </c>
-      <c r="E42" s="2">
-        <v>226.20000000000002</v>
-      </c>
-      <c r="F42" s="2">
-        <v>3732.4333333333329</v>
-      </c>
       <c r="J42" s="1">
         <v>189.78333333333339</v>
       </c>
@@ -2089,56 +2104,7 @@
         <v>31626.216666666664</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="2">
-        <v>193.90833333333333</v>
-      </c>
-      <c r="D43" s="3">
-        <v>3134.7833333333328</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1713.1333333333332</v>
-      </c>
-      <c r="F43" s="2">
-        <v>15677.01666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="2">
-        <v>250.54999999999998</v>
-      </c>
-      <c r="D44" s="3">
-        <v>4281.1499999999996</v>
-      </c>
-      <c r="E44" s="2">
-        <v>2230.8833333333337</v>
-      </c>
-      <c r="F44" s="2">
-        <v>21493.083333333332</v>
-      </c>
-    </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="2">
-        <v>908.79166666666686</v>
-      </c>
-      <c r="D45" s="3">
-        <v>31626.216666666664</v>
-      </c>
-      <c r="E45" s="2">
-        <v>7938.6333333333323</v>
-      </c>
-      <c r="F45" s="2">
-        <v>157446.51666666669</v>
-      </c>
       <c r="J45" s="1">
         <v>189.78333333333339</v>
       </c>
@@ -2158,15 +2124,303 @@
         <v>4281.1499999999996</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J49" s="1">
         <v>31626.216666666664</v>
       </c>
     </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="2">
+        <v>17.633333333333336</v>
+      </c>
+      <c r="D52" s="2">
+        <v>189.78333333333339</v>
+      </c>
+      <c r="E52" s="2">
+        <v>116.59166666666668</v>
+      </c>
+      <c r="F52" s="2">
+        <v>926.10000000000025</v>
+      </c>
+      <c r="H52" s="4">
+        <f>D52/C52</f>
+        <v>10.762759924385634</v>
+      </c>
+      <c r="I52" s="2">
+        <f>F52/E52</f>
+        <v>7.9431062826102501</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2">
+        <v>30.866666666666671</v>
+      </c>
+      <c r="D53" s="2">
+        <v>749.48333333333323</v>
+      </c>
+      <c r="E53" s="2">
+        <v>226.20000000000002</v>
+      </c>
+      <c r="F53" s="2">
+        <v>3732.4333333333329</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" ref="H53:H58" si="0">D53/C53</f>
+        <v>24.281317494600426</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" ref="I53:I58" si="1">F53/E53</f>
+        <v>16.500589448865309</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="2">
+        <v>193.90833333333333</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3134.7833333333328</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1713.1333333333332</v>
+      </c>
+      <c r="F54" s="2">
+        <v>15677.01666666667</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="0"/>
+        <v>16.166315698998666</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1510779468420456</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55">
+        <v>160.57499999999999</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2557.2666666666664</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1361.5666666666666</v>
+      </c>
+      <c r="F55" s="2">
+        <v>12663.133333333333</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="0"/>
+        <v>15.925683740723441</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="1"/>
+        <v>9.3004137390750863</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="2">
+        <v>506.98333333333329</v>
+      </c>
+      <c r="D56" s="2">
+        <v>7926.883333333335</v>
+      </c>
+      <c r="E56" s="2">
+        <v>4478.1833333333334</v>
+      </c>
+      <c r="F56" s="2">
+        <v>39538.700000000004</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="0"/>
+        <v>15.635392353463301</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8291829648183242</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="2">
+        <v>250.54999999999998</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4281.1499999999996</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2230.8833333333337</v>
+      </c>
+      <c r="F57" s="2">
+        <v>21493.083333333332</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="0"/>
+        <v>17.087008581121534</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="1"/>
+        <v>9.6343376689353217</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="2">
+        <v>908.79166666666686</v>
+      </c>
+      <c r="D58" s="2">
+        <v>31626.216666666664</v>
+      </c>
+      <c r="E58" s="2">
+        <v>7938.6333333333323</v>
+      </c>
+      <c r="F58" s="2">
+        <v>157446.51666666669</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="0"/>
+        <v>34.800293429920671</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="1"/>
+        <v>19.832949836033915</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B64" s="3"/>
+      <c r="C64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="2">
+        <v>8040</v>
+      </c>
+      <c r="D65" s="2">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4968</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="2">
+        <v>64546</v>
+      </c>
+      <c r="D67" s="2">
+        <v>32245</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B68" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="2">
+        <v>60878</v>
+      </c>
+      <c r="D68" s="2">
+        <v>31232</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="2">
+        <v>226325</v>
+      </c>
+      <c r="D69" s="2">
+        <v>224291</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D70" s="2">
+        <v>24810</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="2">
+        <v>128314</v>
+      </c>
+      <c r="D71" s="2">
+        <v>64349</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C50:D50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2176,20 +2430,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE87"/>
+  <dimension ref="A1:AE119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="7" max="8" width="9" style="2"/>
     <col min="10" max="10" width="9" style="4"/>
     <col min="11" max="11" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2199,8 +2454,11 @@
       <c r="K1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2210,7 +2468,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
@@ -2245,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10</v>
       </c>
@@ -2255,7 +2513,7 @@
       <c r="C3">
         <v>14.6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3">
@@ -2293,8 +2551,12 @@
         <f>(B3+C3+K3+L3)/2</f>
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R3" s="2">
+        <f>G3-(MIN(D3,H3))</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>50</v>
       </c>
@@ -2304,7 +2566,7 @@
       <c r="C4">
         <v>14.8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.8</v>
       </c>
       <c r="E4">
@@ -2342,8 +2604,12 @@
         <f t="shared" ref="Q4:Q13" si="0">(B4+C4+K4+L4)/2</f>
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:R67" si="1">G4-(MIN(D4,H4))</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -2353,7 +2619,7 @@
       <c r="C5">
         <v>13.4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>3.4</v>
       </c>
       <c r="E5">
@@ -2391,8 +2657,12 @@
         <f t="shared" si="0"/>
         <v>16.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R5" s="2">
+        <f>G5-(MIN(D5,H5))</f>
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200</v>
       </c>
@@ -2402,7 +2672,7 @@
       <c r="C6">
         <v>16.2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>2.6</v>
       </c>
       <c r="E6">
@@ -2440,8 +2710,12 @@
         <f t="shared" si="0"/>
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>300</v>
       </c>
@@ -2451,7 +2725,7 @@
       <c r="C7">
         <v>14.6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>3.6</v>
       </c>
       <c r="E7">
@@ -2489,8 +2763,12 @@
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>400</v>
       </c>
@@ -2500,7 +2778,7 @@
       <c r="C8">
         <v>14.6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>6.4</v>
       </c>
       <c r="E8">
@@ -2538,8 +2816,12 @@
         <f t="shared" si="0"/>
         <v>16.799999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R8" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>500</v>
       </c>
@@ -2549,7 +2831,7 @@
       <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>6.8</v>
       </c>
       <c r="E9">
@@ -2587,8 +2869,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>600</v>
       </c>
@@ -2598,7 +2884,7 @@
       <c r="C10">
         <v>14.2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>13.6</v>
       </c>
       <c r="E10">
@@ -2636,8 +2922,12 @@
         <f t="shared" si="0"/>
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R10" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>700</v>
       </c>
@@ -2647,7 +2937,7 @@
       <c r="C11">
         <v>12.4</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>10.8</v>
       </c>
       <c r="E11">
@@ -2685,8 +2975,12 @@
         <f t="shared" si="0"/>
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R11" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>800</v>
       </c>
@@ -2696,7 +2990,7 @@
       <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>12.6</v>
       </c>
       <c r="E12">
@@ -2734,8 +3028,12 @@
         <f t="shared" si="0"/>
         <v>18.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R12" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>900</v>
       </c>
@@ -2745,7 +3043,7 @@
       <c r="C13">
         <v>14.6</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>10</v>
       </c>
       <c r="E13">
@@ -2783,8 +3081,12 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1000</v>
       </c>
@@ -2794,7 +3096,7 @@
       <c r="C14">
         <v>12.2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>16</v>
       </c>
       <c r="E14">
@@ -2832,8 +3134,12 @@
         <f>(B14+C14+K14+L14)/2</f>
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R14" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2841,8 +3147,9 @@
         <f>AVERAGE(Q3:Q14)</f>
         <v>17.633333333333336</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2852,7 +3159,7 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E16" t="s">
@@ -2861,7 +3168,7 @@
       <c r="F16" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -2883,6 +3190,7 @@
       <c r="O16" t="s">
         <v>3</v>
       </c>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A17">
@@ -2894,7 +3202,7 @@
       <c r="C17">
         <v>26.6</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17">
@@ -2903,10 +3211,10 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>0.2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -2932,6 +3240,10 @@
         <f>(B17+C17+K17+L17)/2</f>
         <v>31.8</v>
       </c>
+      <c r="R17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A18">
@@ -2943,7 +3255,7 @@
       <c r="C18">
         <v>26.2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.4</v>
       </c>
       <c r="E18">
@@ -2952,10 +3264,10 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
@@ -2978,8 +3290,12 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18:Q27" si="1">(B18+C18+K18+L18)/2</f>
+        <f t="shared" ref="Q18:Q27" si="2">(B18+C18+K18+L18)/2</f>
         <v>30.2</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -2992,7 +3308,7 @@
       <c r="C19">
         <v>26</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="E19">
@@ -3001,10 +3317,10 @@
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>1.4</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>7.2</v>
       </c>
       <c r="I19" s="1"/>
@@ -3027,8 +3343,12 @@
         <v>4</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>32.1</v>
+      </c>
+      <c r="R19" s="2">
         <f t="shared" si="1"/>
-        <v>32.1</v>
+        <v>-5.8000000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -3041,7 +3361,7 @@
       <c r="C20">
         <v>25.4</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>1.2</v>
       </c>
       <c r="E20">
@@ -3050,10 +3370,10 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="1"/>
@@ -3076,8 +3396,12 @@
         <v>1</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="R20" s="2">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -3090,7 +3414,7 @@
       <c r="C21">
         <v>26.8</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="E21">
@@ -3099,10 +3423,10 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>3.6</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="1"/>
@@ -3125,8 +3449,12 @@
         <v>2</v>
       </c>
       <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>30.700000000000003</v>
+      </c>
+      <c r="R21" s="2">
         <f t="shared" si="1"/>
-        <v>30.700000000000003</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -3139,7 +3467,7 @@
       <c r="C22">
         <v>25.8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>5.4</v>
       </c>
       <c r="E22">
@@ -3148,10 +3476,10 @@
       <c r="F22">
         <v>5</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>4.8</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>2</v>
       </c>
       <c r="I22" s="1"/>
@@ -3174,8 +3502,12 @@
         <v>5</v>
       </c>
       <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="R22" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -3188,7 +3520,7 @@
       <c r="C23">
         <v>25</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>10</v>
       </c>
       <c r="E23">
@@ -3197,10 +3529,10 @@
       <c r="F23">
         <v>8</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>6.2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>7</v>
       </c>
       <c r="I23" s="1"/>
@@ -3223,8 +3555,12 @@
         <v>8</v>
       </c>
       <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>29.5</v>
+      </c>
+      <c r="R23" s="2">
         <f t="shared" si="1"/>
-        <v>29.5</v>
+        <v>-0.79999999999999982</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -3237,7 +3573,7 @@
       <c r="C24">
         <v>24</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>12.4</v>
       </c>
       <c r="E24">
@@ -3246,10 +3582,10 @@
       <c r="F24">
         <v>12</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>6.8</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>9.1999999999999993</v>
       </c>
       <c r="I24" s="1"/>
@@ -3272,8 +3608,12 @@
         <v>12</v>
       </c>
       <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>29.5</v>
+      </c>
+      <c r="R24" s="2">
         <f t="shared" si="1"/>
-        <v>29.5</v>
+        <v>-2.3999999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -3286,7 +3626,7 @@
       <c r="C25">
         <v>25.6</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>14.2</v>
       </c>
       <c r="E25">
@@ -3295,10 +3635,10 @@
       <c r="F25">
         <v>13</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>7.6</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>10</v>
       </c>
       <c r="I25" s="1"/>
@@ -3321,8 +3661,12 @@
         <v>13</v>
       </c>
       <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="R25" s="2">
         <f t="shared" si="1"/>
-        <v>32.299999999999997</v>
+        <v>-2.4000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -3335,7 +3679,7 @@
       <c r="C26">
         <v>24.8</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>12.2</v>
       </c>
       <c r="E26">
@@ -3344,10 +3688,10 @@
       <c r="F26">
         <v>12</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>9</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>7</v>
       </c>
       <c r="I26" s="1"/>
@@ -3370,8 +3714,12 @@
         <v>12</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="R26" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -3384,7 +3732,7 @@
       <c r="C27">
         <v>26.8</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>9</v>
       </c>
       <c r="E27">
@@ -3393,10 +3741,10 @@
       <c r="F27">
         <v>11</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>6</v>
       </c>
       <c r="I27" s="1"/>
@@ -3419,8 +3767,12 @@
         <v>11</v>
       </c>
       <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="R27" s="2">
         <f t="shared" si="1"/>
-        <v>33.299999999999997</v>
+        <v>3.8000000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -3433,7 +3785,7 @@
       <c r="C28">
         <v>24.6</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>27.6</v>
       </c>
       <c r="E28">
@@ -3442,10 +3794,10 @@
       <c r="F28">
         <v>20</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>12</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>20</v>
       </c>
       <c r="I28" s="1"/>
@@ -3471,6 +3823,10 @@
         <f>(B28+C28+K28+L28)/2</f>
         <v>30</v>
       </c>
+      <c r="R28" s="2">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
@@ -3480,6 +3836,7 @@
         <f>AVERAGE(Q17:Q28)</f>
         <v>30.866666666666671</v>
       </c>
+      <c r="R29" s="2"/>
       <c r="S29" t="s">
         <v>37</v>
       </c>
@@ -3494,7 +3851,7 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E30" t="s">
@@ -3503,7 +3860,7 @@
       <c r="F30" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -3524,6 +3881,7 @@
       <c r="O30" t="s">
         <v>3</v>
       </c>
+      <c r="R30" s="2"/>
       <c r="S30">
         <v>10</v>
       </c>
@@ -3571,7 +3929,7 @@
       <c r="C31">
         <v>187.8</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31">
@@ -3580,10 +3938,10 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>0.2</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="J31" s="5">
@@ -3608,6 +3966,10 @@
         <f>(B31+C31+K31+L31)/2</f>
         <v>194.8</v>
       </c>
+      <c r="R31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
       <c r="S31">
         <v>50</v>
       </c>
@@ -3655,7 +4017,7 @@
       <c r="C32">
         <v>188</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>0.2</v>
       </c>
       <c r="E32">
@@ -3664,10 +4026,10 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>0.2</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="J32" s="5">
@@ -3689,8 +4051,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" ref="Q32:Q41" si="2">(B32+C32+K32+L32)/2</f>
+        <f t="shared" ref="Q32:Q41" si="3">(B32+C32+K32+L32)/2</f>
         <v>193.2</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="S32">
         <v>100</v>
@@ -3739,7 +4105,7 @@
       <c r="C33">
         <v>186.2</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>9.6</v>
       </c>
       <c r="E33">
@@ -3748,10 +4114,10 @@
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <v>1.4</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>8.4</v>
       </c>
       <c r="J33" s="5">
@@ -3773,8 +4139,12 @@
         <v>3</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193.2</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="1"/>
+        <v>-7</v>
       </c>
       <c r="S33">
         <v>200</v>
@@ -3823,7 +4193,7 @@
       <c r="C34">
         <v>187.8</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>46.8</v>
       </c>
       <c r="E34">
@@ -3832,10 +4202,10 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>2.6</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>45.6</v>
       </c>
       <c r="J34" s="5">
@@ -3857,8 +4227,12 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195.6</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="1"/>
+        <v>-43</v>
       </c>
       <c r="S34">
         <v>300</v>
@@ -3907,7 +4281,7 @@
       <c r="C35">
         <v>187.2</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>1.6</v>
       </c>
       <c r="E35">
@@ -3916,10 +4290,10 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>3.2</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>0.2</v>
       </c>
       <c r="J35" s="5">
@@ -3941,8 +4315,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193.39999999999998</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="S35">
         <v>400</v>
@@ -3991,7 +4369,7 @@
       <c r="C36">
         <v>186.6</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>12</v>
       </c>
       <c r="E36">
@@ -4000,10 +4378,10 @@
       <c r="F36">
         <v>4</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="2">
         <v>10.6</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="J36" s="5">
@@ -4025,8 +4403,12 @@
         <v>4</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>194.2</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999989</v>
       </c>
       <c r="S36">
         <v>500</v>
@@ -4075,7 +4457,7 @@
       <c r="C37">
         <v>187.2</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>28.4</v>
       </c>
       <c r="E37">
@@ -4084,10 +4466,10 @@
       <c r="F37">
         <v>5</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="2">
         <v>6</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>25.2</v>
       </c>
       <c r="J37" s="5">
@@ -4109,8 +4491,12 @@
         <v>5</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>194.7</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="1"/>
+        <v>-19.2</v>
       </c>
       <c r="S37">
         <v>600</v>
@@ -4159,7 +4545,7 @@
       <c r="C38">
         <v>187</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>113.2</v>
       </c>
       <c r="E38">
@@ -4168,10 +4554,10 @@
       <c r="F38">
         <v>12</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>111.2</v>
       </c>
       <c r="J38" s="5">
@@ -4193,8 +4579,12 @@
         <v>12</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>194.3</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="1"/>
+        <v>-102</v>
       </c>
       <c r="S38">
         <v>700</v>
@@ -4243,7 +4633,7 @@
       <c r="C39" s="6">
         <v>186.8</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="8">
         <v>237.2</v>
       </c>
       <c r="E39" s="6">
@@ -4252,13 +4642,13 @@
       <c r="F39" s="6">
         <v>5</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="8">
         <v>10.4</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="8">
         <v>231.8</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="7">
         <v>700</v>
       </c>
       <c r="K39" s="6">
@@ -4277,8 +4667,12 @@
         <v>5</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>194</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="1"/>
+        <v>-221.4</v>
       </c>
       <c r="S39" s="6">
         <v>800</v>
@@ -4327,7 +4721,7 @@
       <c r="C40">
         <v>186.2</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>178.4</v>
       </c>
       <c r="E40">
@@ -4336,10 +4730,10 @@
       <c r="F40">
         <v>10</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>172.2</v>
       </c>
       <c r="J40" s="5">
@@ -4361,8 +4755,12 @@
         <v>10</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193.2</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="1"/>
+        <v>-162</v>
       </c>
       <c r="S40">
         <v>900</v>
@@ -4411,7 +4809,7 @@
       <c r="C41">
         <v>187</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>102.6</v>
       </c>
       <c r="E41">
@@ -4420,10 +4818,10 @@
       <c r="F41">
         <v>8</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <v>11</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>99.6</v>
       </c>
       <c r="J41" s="5">
@@ -4445,8 +4843,12 @@
         <v>8</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193.3</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="1"/>
+        <v>-88.6</v>
       </c>
       <c r="S41">
         <v>1000</v>
@@ -4495,7 +4897,7 @@
       <c r="C42">
         <v>185.8</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>99.2</v>
       </c>
       <c r="E42">
@@ -4504,10 +4906,10 @@
       <c r="F42">
         <v>14</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <v>18.2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>92.2</v>
       </c>
       <c r="J42" s="5">
@@ -4532,6 +4934,10 @@
         <f>(B42+C42+K42+L42)/2</f>
         <v>193</v>
       </c>
+      <c r="R42" s="2">
+        <f t="shared" si="1"/>
+        <v>-74</v>
+      </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
@@ -4541,6 +4947,10 @@
         <f>AVERAGE(Q31:Q42)</f>
         <v>193.90833333333333</v>
       </c>
+      <c r="R43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
@@ -4552,7 +4962,7 @@
       <c r="C44" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E44" t="s">
@@ -4561,7 +4971,7 @@
       <c r="F44" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -4582,6 +4992,7 @@
       <c r="O44" t="s">
         <v>3</v>
       </c>
+      <c r="R44" s="2"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A45">
@@ -4593,7 +5004,7 @@
       <c r="C45">
         <v>241.4</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>0</v>
       </c>
       <c r="E45">
@@ -4602,10 +5013,10 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="2">
         <v>0.2</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="J45" s="4">
@@ -4630,6 +5041,10 @@
         <f>(B45+C45+K45+L45)/2</f>
         <v>251.6</v>
       </c>
+      <c r="R45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A46">
@@ -4641,7 +5056,7 @@
       <c r="C46">
         <v>243.4</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>0</v>
       </c>
       <c r="E46">
@@ -4650,10 +5065,10 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <v>0.4</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="J46" s="4">
@@ -4675,8 +5090,12 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="shared" ref="Q46:Q55" si="3">(B46+C46+K46+L46)/2</f>
+        <f t="shared" ref="Q46:Q55" si="4">(B46+C46+K46+L46)/2</f>
         <v>250.29999999999998</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -4689,7 +5108,7 @@
       <c r="C47">
         <v>244.8</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>3</v>
       </c>
       <c r="E47">
@@ -4698,10 +5117,10 @@
       <c r="F47">
         <v>2</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <v>4.2</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>2.6</v>
       </c>
       <c r="J47" s="4">
@@ -4723,8 +5142,12 @@
         <v>2</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>252.2</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -4737,7 +5160,7 @@
       <c r="C48">
         <v>242.4</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48">
@@ -4746,10 +5169,10 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <v>2.4</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <v>0.2</v>
       </c>
       <c r="J48" s="4">
@@ -4771,11 +5194,15 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R48" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>300</v>
       </c>
@@ -4785,7 +5212,7 @@
       <c r="C49">
         <v>243</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>0.2</v>
       </c>
       <c r="E49">
@@ -4794,10 +5221,10 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <v>3.2</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>0.2</v>
       </c>
       <c r="J49" s="4">
@@ -4819,11 +5246,15 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>251</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R49" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>400</v>
       </c>
@@ -4833,7 +5264,7 @@
       <c r="C50">
         <v>242</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>3.8</v>
       </c>
       <c r="E50">
@@ -4842,10 +5273,10 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <v>5</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>2.8</v>
       </c>
       <c r="J50" s="4">
@@ -4867,11 +5298,15 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>248.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R50" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>500</v>
       </c>
@@ -4881,7 +5316,7 @@
       <c r="C51">
         <v>243.4</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>2.4</v>
       </c>
       <c r="E51">
@@ -4890,10 +5325,10 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <v>5.2</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>0.2</v>
       </c>
       <c r="J51" s="4">
@@ -4915,11 +5350,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250.10000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R51" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>600</v>
       </c>
@@ -4929,7 +5368,7 @@
       <c r="C52">
         <v>243</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="E52">
@@ -4938,10 +5377,10 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <v>6</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="J52" s="4">
@@ -4963,11 +5402,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250.89999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R52" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>700</v>
       </c>
@@ -4977,7 +5420,7 @@
       <c r="C53">
         <v>241.6</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="E53">
@@ -4986,10 +5429,10 @@
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <v>7.2</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>1.8</v>
       </c>
       <c r="J53" s="4">
@@ -5011,11 +5454,15 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>249.89999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R53" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>800</v>
       </c>
@@ -5025,7 +5472,7 @@
       <c r="C54">
         <v>242.4</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>6</v>
       </c>
       <c r="E54">
@@ -5034,10 +5481,10 @@
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="2">
         <v>12</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <v>1.6</v>
       </c>
       <c r="J54" s="4">
@@ -5059,11 +5506,15 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>249.89999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R54" s="2">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>900</v>
       </c>
@@ -5073,7 +5524,7 @@
       <c r="C55">
         <v>244</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>4.2</v>
       </c>
       <c r="E55">
@@ -5082,10 +5533,10 @@
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="2">
         <v>10</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>0.8</v>
       </c>
       <c r="J55" s="4">
@@ -5107,11 +5558,15 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R55" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1000</v>
       </c>
@@ -5121,7 +5576,7 @@
       <c r="C56">
         <v>243</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>9.1999999999999993</v>
       </c>
       <c r="E56">
@@ -5130,10 +5585,10 @@
       <c r="F56">
         <v>3</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="2">
         <v>10.8</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>2.4</v>
       </c>
       <c r="J56" s="4">
@@ -5158,498 +5613,1750 @@
         <f>(B56+C56+K56+L56)/2</f>
         <v>250.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R56" s="2">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P57">
         <f>AVERAGE(Q45:Q56)</f>
         <v>250.54999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R57" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P58" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R58" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R59" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R60" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" t="s">
+        <v>11</v>
+      </c>
+      <c r="N61" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61" t="s">
+        <v>3</v>
+      </c>
+      <c r="R61" s="2"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>6.4</v>
+      </c>
+      <c r="C62">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
       <c r="K62">
-        <v>17.633333333333336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+        <v>6.8</v>
+      </c>
+      <c r="L62">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>154</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>50</v>
+      </c>
       <c r="K63">
-        <v>30.866666666666671</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>100</v>
+      </c>
+      <c r="B64">
+        <v>5.8</v>
+      </c>
+      <c r="C64">
+        <v>152</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H64" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="J64">
+        <v>100</v>
+      </c>
       <c r="K64">
-        <v>193.90833333333333</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="L64">
+        <v>152.4</v>
+      </c>
+      <c r="M64">
+        <v>5.6</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="R64" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>200</v>
+      </c>
+      <c r="B65">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C65">
+        <v>154</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J65">
+        <v>200</v>
+      </c>
       <c r="K65">
-        <v>250.54999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+        <v>5.8</v>
+      </c>
+      <c r="L65">
+        <v>150.6</v>
+      </c>
+      <c r="M65">
+        <v>1.2</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="R65" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>300</v>
+      </c>
+      <c r="B66">
+        <v>5.2</v>
+      </c>
+      <c r="C66">
+        <v>153</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J66">
+        <v>300</v>
+      </c>
       <c r="K66">
-        <v>908.79166666666686</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="L66">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="M66">
+        <v>0.2</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>400</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>152.19999999999999</v>
+      </c>
+      <c r="D67" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="J67">
+        <v>400</v>
+      </c>
+      <c r="K67">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L67">
+        <v>156</v>
+      </c>
+      <c r="M67">
+        <v>2.4</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="R67" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>500</v>
+      </c>
+      <c r="B68">
+        <v>6.2</v>
+      </c>
+      <c r="C68">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="D68" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="H68" s="2">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>500</v>
+      </c>
+      <c r="K68">
+        <v>7</v>
+      </c>
+      <c r="L68">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68">
+        <v>2</v>
+      </c>
+      <c r="R68" s="2">
+        <f t="shared" ref="R68:R74" si="5">G68-(MIN(D68,H68))</f>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>600</v>
+      </c>
+      <c r="B69">
+        <v>6.6</v>
+      </c>
+      <c r="C69">
+        <v>154</v>
+      </c>
+      <c r="D69" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69" s="2">
+        <v>8</v>
+      </c>
+      <c r="H69" s="2">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>600</v>
+      </c>
+      <c r="K69">
+        <v>5.4</v>
+      </c>
+      <c r="L69">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="M69">
+        <v>5</v>
+      </c>
+      <c r="N69">
+        <v>6</v>
+      </c>
+      <c r="O69">
+        <v>6</v>
+      </c>
+      <c r="R69" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>700</v>
+      </c>
+      <c r="B70">
+        <v>8.4</v>
+      </c>
+      <c r="C70">
+        <v>155.4</v>
+      </c>
+      <c r="D70" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>7</v>
+      </c>
+      <c r="H70" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="J70">
+        <v>700</v>
+      </c>
+      <c r="K70">
+        <v>6.4</v>
+      </c>
+      <c r="L70">
+        <v>151</v>
+      </c>
+      <c r="M70">
+        <v>2.8</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="R70" s="2">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>800</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="D71" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H71" s="2">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>800</v>
+      </c>
+      <c r="K71">
+        <v>7</v>
+      </c>
+      <c r="L71">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71">
+        <v>5</v>
+      </c>
+      <c r="R71" s="2">
+        <f t="shared" si="5"/>
+        <v>7.8000000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>900</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="D72" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>9</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J72">
+        <v>900</v>
+      </c>
+      <c r="K72">
+        <v>7.4</v>
+      </c>
+      <c r="L72">
+        <v>155.6</v>
+      </c>
+      <c r="M72">
+        <v>0.2</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="R72" s="2">
+        <f t="shared" si="5"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>1000</v>
+      </c>
+      <c r="B73">
+        <v>7.4</v>
+      </c>
+      <c r="C73">
+        <v>153</v>
+      </c>
+      <c r="D73" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="H73" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J73">
+        <v>1000</v>
+      </c>
+      <c r="K73">
+        <v>6.2</v>
+      </c>
+      <c r="L73">
+        <v>150</v>
+      </c>
+      <c r="M73">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N73">
+        <v>9</v>
+      </c>
+      <c r="O73">
+        <v>9</v>
+      </c>
+      <c r="R73" s="2">
+        <f t="shared" si="5"/>
+        <v>4.3999999999999986</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B74">
+        <f>(B62+C62+K62+L62)/2</f>
+        <v>163.60000000000002</v>
+      </c>
+      <c r="R74" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B75">
+        <f t="shared" ref="B75:B85" si="6">(B63+C63+K63+L63)/2</f>
+        <v>163.1</v>
+      </c>
+      <c r="R75" s="2" t="e">
+        <f t="shared" ref="R68:R75" si="7">G75/(MIN(D75,H75))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B76">
+        <f t="shared" si="6"/>
+        <v>158.60000000000002</v>
+      </c>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>159.60000000000002</v>
+      </c>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B78">
+        <f t="shared" si="6"/>
+        <v>161.5</v>
+      </c>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B79">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B80">
+        <f t="shared" si="6"/>
+        <v>158.4</v>
+      </c>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <f t="shared" si="6"/>
+        <v>158.6</v>
+      </c>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B82">
+        <f t="shared" si="6"/>
+        <v>160.60000000000002</v>
+      </c>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B83">
+        <f t="shared" si="6"/>
+        <v>160.5</v>
+      </c>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B84">
+        <f t="shared" si="6"/>
+        <v>162.1</v>
+      </c>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B85">
+        <f t="shared" si="6"/>
+        <v>158.30000000000001</v>
+      </c>
+      <c r="C85">
+        <f>AVERAGE(B74:B85)</f>
+        <v>160.57499999999999</v>
+      </c>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="I87" t="s">
+        <v>60</v>
+      </c>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2</v>
+      </c>
+      <c r="L88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>10</v>
       </c>
-      <c r="C76">
-        <v>6.8</v>
-      </c>
-      <c r="D76" s="1">
-        <v>187.8</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="I76">
+      <c r="B89">
+        <v>2562</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>10</v>
       </c>
-      <c r="J76" s="5">
-        <v>6.8</v>
-      </c>
-      <c r="K76">
-        <v>188.2</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B77">
+      <c r="J89">
+        <v>7927</v>
+      </c>
+      <c r="K89">
+        <v>0.2</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90">
         <v>50</v>
       </c>
-      <c r="C77">
-        <v>6.8</v>
-      </c>
-      <c r="D77" s="1">
-        <v>188</v>
-      </c>
-      <c r="E77">
+      <c r="B90">
+        <v>2559.6</v>
+      </c>
+      <c r="C90">
+        <v>0.6</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>50</v>
+      </c>
+      <c r="J90">
+        <v>7909.6</v>
+      </c>
+      <c r="K90">
+        <v>0.6</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>100</v>
+      </c>
+      <c r="B91">
+        <v>2557.1999999999998</v>
+      </c>
+      <c r="C91">
+        <v>1.6</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>100</v>
+      </c>
+      <c r="J91">
+        <v>7916</v>
+      </c>
+      <c r="K91">
+        <v>1.2</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>200</v>
+      </c>
+      <c r="B92">
+        <v>2554</v>
+      </c>
+      <c r="C92">
+        <v>2.4</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>200</v>
+      </c>
+      <c r="J92">
+        <v>7921.8</v>
+      </c>
+      <c r="K92">
+        <v>2.6</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>300</v>
+      </c>
+      <c r="B93">
+        <v>2554.4</v>
+      </c>
+      <c r="C93">
+        <v>3.6</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>300</v>
+      </c>
+      <c r="J93">
+        <v>7920.6</v>
+      </c>
+      <c r="K93">
+        <v>3.2</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>400</v>
+      </c>
+      <c r="B94">
+        <v>2557.8000000000002</v>
+      </c>
+      <c r="C94">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>400</v>
+      </c>
+      <c r="J94">
+        <v>7922.8</v>
+      </c>
+      <c r="K94">
+        <v>5.2</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>500</v>
+      </c>
+      <c r="B95">
+        <v>2557.4</v>
+      </c>
+      <c r="C95">
+        <v>6.4</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>500</v>
+      </c>
+      <c r="J95">
+        <v>7930.8</v>
+      </c>
+      <c r="K95">
+        <v>5.6</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>600</v>
+      </c>
+      <c r="B96">
+        <v>2552.6</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>600</v>
+      </c>
+      <c r="J96">
+        <v>7941</v>
+      </c>
+      <c r="K96">
+        <v>7.4</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>700</v>
+      </c>
+      <c r="B97">
+        <v>2555.6</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>700</v>
+      </c>
+      <c r="J97">
+        <v>7935.2</v>
+      </c>
+      <c r="K97">
+        <v>8.4</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>800</v>
+      </c>
+      <c r="B98">
+        <v>2557.8000000000002</v>
+      </c>
+      <c r="C98">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>800</v>
+      </c>
+      <c r="J98">
+        <v>7926.6</v>
+      </c>
+      <c r="K98">
+        <v>10.8</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>900</v>
+      </c>
+      <c r="B99">
+        <v>2559</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>900</v>
+      </c>
+      <c r="J99">
+        <v>7948.6</v>
+      </c>
+      <c r="K99">
+        <v>11.2</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>1000</v>
+      </c>
+      <c r="B100">
+        <v>2559.8000000000002</v>
+      </c>
+      <c r="C100">
+        <v>13.2</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="I100">
+        <v>1000</v>
+      </c>
+      <c r="J100">
+        <v>7922.6</v>
+      </c>
+      <c r="K100">
+        <v>14</v>
+      </c>
+      <c r="L100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B101">
+        <f>AVERAGE(B89:B100)</f>
+        <v>2557.2666666666664</v>
+      </c>
+      <c r="J101">
+        <f>AVERAGE(J89:J100)</f>
+        <v>7926.883333333335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J106" t="s">
+        <v>8</v>
+      </c>
+      <c r="K106" t="s">
+        <v>9</v>
+      </c>
+      <c r="L106" t="s">
+        <v>10</v>
+      </c>
+      <c r="M106" t="s">
+        <v>11</v>
+      </c>
+      <c r="N106" t="s">
+        <v>12</v>
+      </c>
+      <c r="O106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>11.6</v>
+      </c>
+      <c r="C107">
+        <v>502</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
         <v>0.2</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="I77">
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107">
+        <v>11.6</v>
+      </c>
+      <c r="L107">
+        <v>503.2</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <f>(B107+C107+K107+L107)/2</f>
+        <v>514.20000000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A108">
         <v>50</v>
       </c>
-      <c r="J77" s="5">
-        <v>7</v>
-      </c>
-      <c r="K77">
-        <v>184.6</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B78">
+      <c r="B108">
+        <v>11.6</v>
+      </c>
+      <c r="C108">
+        <v>495.4</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0.6</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>50</v>
+      </c>
+      <c r="K108">
+        <v>12</v>
+      </c>
+      <c r="L108">
+        <v>498.6</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" ref="Q108:Q117" si="8">(B108+C108+K108+L108)/2</f>
+        <v>508.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A109">
         <v>100</v>
       </c>
-      <c r="C78">
-        <v>7.6</v>
-      </c>
-      <c r="D78" s="1">
-        <v>186.2</v>
-      </c>
-      <c r="E78">
-        <v>9.6</v>
-      </c>
-      <c r="F78">
+      <c r="B109">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>492.4</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1.2</v>
+      </c>
+      <c r="H109">
+        <v>0.8</v>
+      </c>
+      <c r="J109">
+        <v>100</v>
+      </c>
+      <c r="K109">
+        <v>11.2</v>
+      </c>
+      <c r="L109">
+        <v>499.8</v>
+      </c>
+      <c r="M109">
+        <v>0.8</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="8"/>
+        <v>507.70000000000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>200</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>497.8</v>
+      </c>
+      <c r="D110">
+        <v>1.8</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>2.6</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>200</v>
+      </c>
+      <c r="K110">
+        <v>11.2</v>
+      </c>
+      <c r="L110">
+        <v>490.4</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="8"/>
+        <v>505.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>300</v>
+      </c>
+      <c r="B111">
+        <v>11.4</v>
+      </c>
+      <c r="C111">
+        <v>495</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>3.2</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>300</v>
+      </c>
+      <c r="K111">
+        <v>14</v>
+      </c>
+      <c r="L111">
+        <v>493.4</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="8"/>
+        <v>506.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>400</v>
+      </c>
+      <c r="B112">
+        <v>11.6</v>
+      </c>
+      <c r="C112">
+        <v>493.2</v>
+      </c>
+      <c r="D112">
+        <v>5.2</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>5.2</v>
+      </c>
+      <c r="H112">
+        <v>1.4</v>
+      </c>
+      <c r="J112">
+        <v>400</v>
+      </c>
+      <c r="K112">
+        <v>11.8</v>
+      </c>
+      <c r="L112">
+        <v>492</v>
+      </c>
+      <c r="M112">
+        <v>1.4</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="8"/>
+        <v>504.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>500</v>
+      </c>
+      <c r="B113">
+        <v>12.6</v>
+      </c>
+      <c r="C113">
+        <v>495.6</v>
+      </c>
+      <c r="D113">
+        <v>5.2</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>5.6</v>
+      </c>
+      <c r="H113">
+        <v>0.8</v>
+      </c>
+      <c r="J113">
+        <v>500</v>
+      </c>
+      <c r="K113">
+        <v>11.8</v>
+      </c>
+      <c r="L113">
+        <v>495.4</v>
+      </c>
+      <c r="M113">
+        <v>0.8</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113">
+        <v>2</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="8"/>
+        <v>507.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>600</v>
+      </c>
+      <c r="B114">
+        <v>11.2</v>
+      </c>
+      <c r="C114">
+        <v>493</v>
+      </c>
+      <c r="D114">
+        <v>6.2</v>
+      </c>
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114">
+        <v>7.4</v>
+      </c>
+      <c r="H114">
         <v>3</v>
       </c>
-      <c r="G78">
+      <c r="J114">
+        <v>600</v>
+      </c>
+      <c r="K114">
+        <v>11.6</v>
+      </c>
+      <c r="L114">
+        <v>494.4</v>
+      </c>
+      <c r="M114">
         <v>3</v>
       </c>
-      <c r="I78">
-        <v>100</v>
-      </c>
-      <c r="J78" s="5">
-        <v>6.6</v>
-      </c>
-      <c r="K78">
-        <v>186</v>
-      </c>
-      <c r="L78">
+      <c r="N114">
+        <v>6</v>
+      </c>
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="8"/>
+        <v>505.09999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="4">
+        <v>700</v>
+      </c>
+      <c r="B115" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="C115" s="4">
+        <v>497.6</v>
+      </c>
+      <c r="D115" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="E115" s="4">
+        <v>6</v>
+      </c>
+      <c r="F115" s="4">
+        <v>2</v>
+      </c>
+      <c r="G115" s="4">
         <v>8.4</v>
       </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B79">
-        <v>200</v>
-      </c>
-      <c r="C79">
-        <v>7.6</v>
-      </c>
-      <c r="D79" s="1">
-        <v>187.8</v>
-      </c>
-      <c r="E79">
-        <v>46.8</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>200</v>
-      </c>
-      <c r="J79" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="K79">
-        <v>188.6</v>
-      </c>
-      <c r="L79">
-        <v>45.6</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B80">
-        <v>300</v>
-      </c>
-      <c r="C80">
-        <v>7</v>
-      </c>
-      <c r="D80" s="1">
-        <v>187.2</v>
-      </c>
-      <c r="E80">
-        <v>1.6</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>300</v>
-      </c>
-      <c r="J80" s="5">
-        <v>7</v>
-      </c>
-      <c r="K80">
-        <v>185.6</v>
-      </c>
-      <c r="L80">
-        <v>0.2</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B81">
-        <v>400</v>
-      </c>
-      <c r="C81">
-        <v>7.2</v>
-      </c>
-      <c r="D81" s="1">
-        <v>186.6</v>
-      </c>
-      <c r="E81">
-        <v>12</v>
-      </c>
-      <c r="F81">
+      <c r="H115" s="4">
+        <v>21</v>
+      </c>
+      <c r="J115" s="4">
+        <v>700</v>
+      </c>
+      <c r="K115" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="L115" s="4">
+        <v>495.8</v>
+      </c>
+      <c r="M115" s="4">
+        <v>21</v>
+      </c>
+      <c r="N115" s="4">
+        <v>6</v>
+      </c>
+      <c r="O115" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q115" s="4">
+        <f t="shared" si="8"/>
+        <v>508.29999999999995</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>800</v>
+      </c>
+      <c r="B116">
+        <v>11.2</v>
+      </c>
+      <c r="C116">
+        <v>489.6</v>
+      </c>
+      <c r="D116">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E116">
         <v>5</v>
       </c>
-      <c r="G81">
+      <c r="F116">
         <v>4</v>
       </c>
-      <c r="I81">
-        <v>400</v>
-      </c>
-      <c r="J81" s="5">
-        <v>7.6</v>
-      </c>
-      <c r="K81">
-        <v>187</v>
-      </c>
-      <c r="L81">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M81">
+      <c r="G116">
+        <v>10.8</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+      <c r="J116">
+        <v>800</v>
+      </c>
+      <c r="K116">
+        <v>11.4</v>
+      </c>
+      <c r="L116">
+        <v>491.6</v>
+      </c>
+      <c r="M116">
+        <v>4</v>
+      </c>
+      <c r="N116">
         <v>5</v>
       </c>
-      <c r="N81">
+      <c r="O116">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B82">
-        <v>500</v>
-      </c>
-      <c r="C82">
-        <v>7.4</v>
-      </c>
-      <c r="D82" s="1">
-        <v>187.2</v>
-      </c>
-      <c r="E82">
-        <v>28.4</v>
-      </c>
-      <c r="F82">
-        <v>7</v>
-      </c>
-      <c r="G82">
-        <v>5</v>
-      </c>
-      <c r="I82">
-        <v>500</v>
-      </c>
-      <c r="J82" s="5">
-        <v>7</v>
-      </c>
-      <c r="K82">
-        <v>187.8</v>
-      </c>
-      <c r="L82">
-        <v>25.2</v>
-      </c>
-      <c r="M82">
-        <v>7</v>
-      </c>
-      <c r="N82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B83">
-        <v>600</v>
-      </c>
-      <c r="C83">
-        <v>7</v>
-      </c>
-      <c r="D83" s="1">
-        <v>187</v>
-      </c>
-      <c r="E83">
-        <v>113.2</v>
-      </c>
-      <c r="F83">
-        <v>12</v>
-      </c>
-      <c r="G83">
-        <v>12</v>
-      </c>
-      <c r="I83">
-        <v>600</v>
-      </c>
-      <c r="J83" s="5">
-        <v>7</v>
-      </c>
-      <c r="K83">
-        <v>187.6</v>
-      </c>
-      <c r="L83">
-        <v>111.2</v>
-      </c>
-      <c r="M83">
-        <v>12</v>
-      </c>
-      <c r="N83">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B84">
-        <v>700</v>
-      </c>
-      <c r="C84">
-        <v>6.8</v>
-      </c>
-      <c r="D84" s="1">
-        <v>186.8</v>
-      </c>
-      <c r="E84">
-        <v>237.2</v>
-      </c>
-      <c r="F84">
+      <c r="Q116">
+        <f t="shared" si="8"/>
+        <v>501.90000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>900</v>
+      </c>
+      <c r="B117">
+        <v>11.6</v>
+      </c>
+      <c r="C117">
+        <v>495.8</v>
+      </c>
+      <c r="D117">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117">
+        <v>11.2</v>
+      </c>
+      <c r="H117">
+        <v>5.8</v>
+      </c>
+      <c r="J117">
+        <v>900</v>
+      </c>
+      <c r="K117">
+        <v>11.4</v>
+      </c>
+      <c r="L117">
+        <v>493.8</v>
+      </c>
+      <c r="M117">
+        <v>5.8</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="8"/>
+        <v>506.30000000000007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>1000</v>
+      </c>
+      <c r="B118">
+        <v>11.4</v>
+      </c>
+      <c r="C118">
+        <v>492.8</v>
+      </c>
+      <c r="D118">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E118">
         <v>10</v>
       </c>
-      <c r="G84">
-        <v>5</v>
-      </c>
-      <c r="I84">
-        <v>700</v>
-      </c>
-      <c r="J84" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="K84">
-        <v>187</v>
-      </c>
-      <c r="L84">
-        <v>231.8</v>
-      </c>
-      <c r="M84">
+      <c r="F118">
+        <v>6</v>
+      </c>
+      <c r="G118">
+        <v>14</v>
+      </c>
+      <c r="H118">
+        <v>2.8</v>
+      </c>
+      <c r="J118">
+        <v>1000</v>
+      </c>
+      <c r="K118">
+        <v>12.2</v>
+      </c>
+      <c r="L118">
+        <v>497.4</v>
+      </c>
+      <c r="M118">
+        <v>2.8</v>
+      </c>
+      <c r="N118">
         <v>10</v>
       </c>
-      <c r="N84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B85">
-        <v>800</v>
-      </c>
-      <c r="C85">
-        <v>7</v>
-      </c>
-      <c r="D85" s="1">
-        <v>186.2</v>
-      </c>
-      <c r="E85">
-        <v>178.4</v>
-      </c>
-      <c r="F85">
-        <v>13</v>
-      </c>
-      <c r="G85">
-        <v>10</v>
-      </c>
-      <c r="I85">
-        <v>800</v>
-      </c>
-      <c r="J85" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="K85">
-        <v>185.8</v>
-      </c>
-      <c r="L85">
-        <v>172.2</v>
-      </c>
-      <c r="M85">
-        <v>13</v>
-      </c>
-      <c r="N85">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B86">
-        <v>900</v>
-      </c>
-      <c r="C86">
-        <v>6.2</v>
-      </c>
-      <c r="D86" s="1">
-        <v>187</v>
-      </c>
-      <c r="E86">
-        <v>102.6</v>
-      </c>
-      <c r="F86">
-        <v>8</v>
-      </c>
-      <c r="G86">
-        <v>8</v>
-      </c>
-      <c r="I86">
-        <v>900</v>
-      </c>
-      <c r="J86" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="K86">
-        <v>185.6</v>
-      </c>
-      <c r="L86">
-        <v>99.6</v>
-      </c>
-      <c r="M86">
-        <v>8</v>
-      </c>
-      <c r="N86">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B87">
-        <v>1000</v>
-      </c>
-      <c r="C87">
-        <v>7.2</v>
-      </c>
-      <c r="D87" s="1">
-        <v>185.8</v>
-      </c>
-      <c r="E87">
-        <v>99.2</v>
-      </c>
-      <c r="F87">
-        <v>16</v>
-      </c>
-      <c r="G87">
-        <v>14</v>
-      </c>
-      <c r="I87">
-        <v>1000</v>
-      </c>
-      <c r="J87" s="5">
-        <v>6.6</v>
-      </c>
-      <c r="K87">
-        <v>186.4</v>
-      </c>
-      <c r="L87">
-        <v>92.2</v>
-      </c>
-      <c r="M87">
-        <v>16</v>
-      </c>
-      <c r="N87">
-        <v>14</v>
+      <c r="O118">
+        <v>6</v>
+      </c>
+      <c r="Q118">
+        <f>(B118+C118+K118+L118)/2</f>
+        <v>506.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P119">
+        <f>AVERAGE(Q107:Q118)</f>
+        <v>506.98333333333329</v>
       </c>
     </row>
   </sheetData>
@@ -5661,14 +7368,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5696,7 +7406,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
@@ -5708,7 +7418,7 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J2" t="s">
@@ -5743,7 +7453,7 @@
       <c r="C3">
         <v>101.8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>3.4</v>
       </c>
       <c r="E3">
@@ -5755,7 +7465,7 @@
       <c r="G3" s="2">
         <v>1.2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>1.2</v>
       </c>
       <c r="J3">
@@ -5791,7 +7501,7 @@
       <c r="C4">
         <v>101.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>8.6</v>
       </c>
       <c r="E4">
@@ -5803,7 +7513,7 @@
       <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>2.8</v>
       </c>
       <c r="J4">
@@ -5839,7 +7549,7 @@
       <c r="C5">
         <v>102.2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>23</v>
       </c>
       <c r="E5">
@@ -5851,7 +7561,7 @@
       <c r="G5" s="2">
         <v>10.6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>8.6</v>
       </c>
       <c r="J5">
@@ -5887,7 +7597,7 @@
       <c r="C6">
         <v>101.6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>44</v>
       </c>
       <c r="E6">
@@ -5899,7 +7609,7 @@
       <c r="G6" s="2">
         <v>20.2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>15.8</v>
       </c>
       <c r="J6">
@@ -5935,7 +7645,7 @@
       <c r="C7">
         <v>101.2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>66.400000000000006</v>
       </c>
       <c r="E7">
@@ -5947,7 +7657,7 @@
       <c r="G7" s="2">
         <v>30.4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>21.4</v>
       </c>
       <c r="J7">
@@ -5983,7 +7693,7 @@
       <c r="C8">
         <v>106.4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>84.4</v>
       </c>
       <c r="E8">
@@ -5995,7 +7705,7 @@
       <c r="G8" s="2">
         <v>40.6</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>30.6</v>
       </c>
       <c r="J8">
@@ -6031,7 +7741,7 @@
       <c r="C9">
         <v>101.8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>107.6</v>
       </c>
       <c r="E9">
@@ -6043,7 +7753,7 @@
       <c r="G9" s="2">
         <v>50.8</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>35.799999999999997</v>
       </c>
       <c r="J9">
@@ -6079,7 +7789,7 @@
       <c r="C10">
         <v>100.8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>151.4</v>
       </c>
       <c r="E10">
@@ -6091,7 +7801,7 @@
       <c r="G10" s="2">
         <v>61.6</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>68.400000000000006</v>
       </c>
       <c r="J10">
@@ -6127,7 +7837,7 @@
       <c r="C11">
         <v>101.2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>165.8</v>
       </c>
       <c r="E11">
@@ -6139,7 +7849,7 @@
       <c r="G11" s="2">
         <v>71.2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>65</v>
       </c>
       <c r="J11">
@@ -6175,7 +7885,7 @@
       <c r="C12">
         <v>101</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>162.6</v>
       </c>
       <c r="E12">
@@ -6187,7 +7897,7 @@
       <c r="G12" s="2">
         <v>78.599999999999994</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>49.2</v>
       </c>
       <c r="J12">
@@ -6223,7 +7933,7 @@
       <c r="C13">
         <v>102</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>189</v>
       </c>
       <c r="E13">
@@ -6235,7 +7945,7 @@
       <c r="G13" s="2">
         <v>89.2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>61.8</v>
       </c>
       <c r="J13">
@@ -6271,7 +7981,7 @@
       <c r="C14">
         <v>104.8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>211.6</v>
       </c>
       <c r="E14">
@@ -6283,7 +7993,7 @@
       <c r="G14" s="2">
         <v>100.4</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>77.2</v>
       </c>
       <c r="J14">
@@ -6336,7 +8046,7 @@
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E17" t="s">
@@ -6348,7 +8058,7 @@
       <c r="G17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J17" t="s">
@@ -6380,7 +8090,7 @@
       <c r="C18">
         <v>206.6</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>4.2</v>
       </c>
       <c r="E18">
@@ -6389,10 +8099,10 @@
       <c r="F18">
         <v>3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>1.6</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>4</v>
       </c>
       <c r="J18">
@@ -6428,7 +8138,7 @@
       <c r="C19">
         <v>205.2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19">
@@ -6437,10 +8147,10 @@
       <c r="F19">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>5.2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>3.4</v>
       </c>
       <c r="J19">
@@ -6476,7 +8186,7 @@
       <c r="C20">
         <v>205.2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>28.2</v>
       </c>
       <c r="E20">
@@ -6485,10 +8195,10 @@
       <c r="F20">
         <v>23</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>10.4</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>20.399999999999999</v>
       </c>
       <c r="J20">
@@ -6524,7 +8234,7 @@
       <c r="C21">
         <v>204.2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>46</v>
       </c>
       <c r="E21">
@@ -6533,10 +8243,10 @@
       <c r="F21">
         <v>39</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>21.6</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>28.4</v>
       </c>
       <c r="J21">
@@ -6572,7 +8282,7 @@
       <c r="C22">
         <v>204.4</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>61</v>
       </c>
       <c r="E22">
@@ -6581,10 +8291,10 @@
       <c r="F22">
         <v>53</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>31</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>37.200000000000003</v>
       </c>
       <c r="J22">
@@ -6620,7 +8330,7 @@
       <c r="C23">
         <v>205.4</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>78.400000000000006</v>
       </c>
       <c r="E23">
@@ -6629,10 +8339,10 @@
       <c r="F23">
         <v>70</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>41.6</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>44.2</v>
       </c>
       <c r="J23">
@@ -6668,7 +8378,7 @@
       <c r="C24">
         <v>203.8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>108.8</v>
       </c>
       <c r="E24">
@@ -6677,10 +8387,10 @@
       <c r="F24">
         <v>109</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>53.8</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>67.8</v>
       </c>
       <c r="J24">
@@ -6716,7 +8426,7 @@
       <c r="C25">
         <v>204.2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>162.19999999999999</v>
       </c>
       <c r="E25">
@@ -6725,10 +8435,10 @@
       <c r="F25">
         <v>159</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>64.8</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>113</v>
       </c>
       <c r="J25">
@@ -6764,7 +8474,7 @@
       <c r="C26">
         <v>205</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>161</v>
       </c>
       <c r="E26">
@@ -6773,10 +8483,10 @@
       <c r="F26">
         <v>161</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>73.599999999999994</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>101.6</v>
       </c>
       <c r="J26">
@@ -6812,7 +8522,7 @@
       <c r="C27">
         <v>204.4</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>145.6</v>
       </c>
       <c r="E27">
@@ -6821,10 +8531,10 @@
       <c r="F27">
         <v>135</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>80.599999999999994</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>81.8</v>
       </c>
       <c r="J27">
@@ -6860,7 +8570,7 @@
       <c r="C28">
         <v>204.2</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>182</v>
       </c>
       <c r="E28">
@@ -6869,10 +8579,10 @@
       <c r="F28">
         <v>175</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>92.6</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>111.6</v>
       </c>
       <c r="J28">
@@ -6908,7 +8618,7 @@
       <c r="C29">
         <v>203.4</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>234</v>
       </c>
       <c r="E29">
@@ -6917,10 +8627,10 @@
       <c r="F29">
         <v>229</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>109.4</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>152</v>
       </c>
       <c r="J29">
@@ -6971,7 +8681,7 @@
       <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E31" t="s">
@@ -6983,7 +8693,7 @@
       <c r="G31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6997,7 +8707,7 @@
       <c r="C32">
         <v>1687.6</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>7</v>
       </c>
       <c r="E32">
@@ -7006,10 +8716,10 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>3.2</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>5.2</v>
       </c>
       <c r="J32">
@@ -7045,7 +8755,7 @@
       <c r="C33">
         <v>1682.8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>19.8</v>
       </c>
       <c r="E33">
@@ -7054,10 +8764,10 @@
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>5</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>15.4</v>
       </c>
       <c r="J33">
@@ -7093,7 +8803,7 @@
       <c r="C34">
         <v>1681.6</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>577.4</v>
       </c>
       <c r="E34">
@@ -7102,10 +8812,10 @@
       <c r="F34">
         <v>15</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>14</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>564.20000000000005</v>
       </c>
       <c r="J34">
@@ -7141,7 +8851,7 @@
       <c r="C35">
         <v>1682.6</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>539.20000000000005</v>
       </c>
       <c r="E35">
@@ -7150,10 +8860,10 @@
       <c r="F35">
         <v>27</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>23.8</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>514.79999999999995</v>
       </c>
       <c r="J35">
@@ -7189,7 +8899,7 @@
       <c r="C36">
         <v>1680.2</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>390.6</v>
       </c>
       <c r="E36">
@@ -7198,10 +8908,10 @@
       <c r="F36">
         <v>29</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>35.200000000000003</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>352.6</v>
       </c>
       <c r="J36">
@@ -7237,7 +8947,7 @@
       <c r="C37">
         <v>1680.2</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>822.4</v>
       </c>
       <c r="E37">
@@ -7246,10 +8956,10 @@
       <c r="F37">
         <v>42</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>59.8</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>766.8</v>
       </c>
       <c r="J37">
@@ -7285,7 +8995,7 @@
       <c r="C38">
         <v>1682.2</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>1209.5999999999999</v>
       </c>
       <c r="E38">
@@ -7294,10 +9004,10 @@
       <c r="F38">
         <v>62</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>65.8</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>1157.8</v>
       </c>
       <c r="J38">
@@ -7333,7 +9043,7 @@
       <c r="C39">
         <v>1678.6</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>1686.2</v>
       </c>
       <c r="E39">
@@ -7342,10 +9052,10 @@
       <c r="F39">
         <v>103</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>144.80000000000001</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>1626</v>
       </c>
       <c r="J39">
@@ -7381,7 +9091,7 @@
       <c r="C40">
         <v>1681.8</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>1839</v>
       </c>
       <c r="E40">
@@ -7390,10 +9100,10 @@
       <c r="F40">
         <v>92</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>101.8</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>1764.6</v>
       </c>
       <c r="J40">
@@ -7429,7 +9139,7 @@
       <c r="C41">
         <v>1680.8</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>1850.6</v>
       </c>
       <c r="E41">
@@ -7438,10 +9148,10 @@
       <c r="F41">
         <v>80</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>104</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>1771.4</v>
       </c>
       <c r="J41">
@@ -7477,7 +9187,7 @@
       <c r="C42">
         <v>1681.8</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>2630</v>
       </c>
       <c r="E42">
@@ -7486,10 +9196,10 @@
       <c r="F42">
         <v>122</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>193.2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>2537</v>
       </c>
       <c r="J42">
@@ -7525,7 +9235,7 @@
       <c r="C43">
         <v>1680.6</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>3677</v>
       </c>
       <c r="E43">
@@ -7534,10 +9244,10 @@
       <c r="F43">
         <v>141</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>154</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>3545.8</v>
       </c>
       <c r="J43">
@@ -7588,7 +9298,7 @@
       <c r="C45" t="s">
         <v>10</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E45" t="s">
@@ -7600,7 +9310,7 @@
       <c r="G45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7614,7 +9324,7 @@
       <c r="C46">
         <v>2191.1999999999998</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>2</v>
       </c>
       <c r="E46">
@@ -7623,10 +9333,10 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>1</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="J46">
@@ -7662,7 +9372,7 @@
       <c r="C47">
         <v>2190.4</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>2.8</v>
       </c>
       <c r="E47">
@@ -7671,10 +9381,10 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>5.2</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="J47">
@@ -7710,7 +9420,7 @@
       <c r="C48">
         <v>2188</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>15.4</v>
       </c>
       <c r="E48">
@@ -7719,10 +9429,10 @@
       <c r="F48">
         <v>3</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>12.4</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <v>7</v>
       </c>
       <c r="J48">
@@ -7758,7 +9468,7 @@
       <c r="C49">
         <v>2187.6</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>21</v>
       </c>
       <c r="E49">
@@ -7767,10 +9477,10 @@
       <c r="F49">
         <v>6</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>21.4</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>6.8</v>
       </c>
       <c r="J49">
@@ -7806,7 +9516,7 @@
       <c r="C50">
         <v>2193.6</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>31.4</v>
       </c>
       <c r="E50">
@@ -7815,10 +9525,10 @@
       <c r="F50">
         <v>6</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>27.8</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>9</v>
       </c>
       <c r="J50">
@@ -7854,7 +9564,7 @@
       <c r="C51">
         <v>2188</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>42.2</v>
       </c>
       <c r="E51">
@@ -7863,10 +9573,10 @@
       <c r="F51">
         <v>5</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>37</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>13</v>
       </c>
       <c r="J51">
@@ -7902,7 +9612,7 @@
       <c r="C52">
         <v>2187.1999999999998</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>48.2</v>
       </c>
       <c r="E52">
@@ -7911,10 +9621,10 @@
       <c r="F52">
         <v>10</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>53.8</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="J52">
@@ -7950,7 +9660,7 @@
       <c r="C53">
         <v>2185.1999999999998</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>90</v>
       </c>
       <c r="E53">
@@ -7959,10 +9669,10 @@
       <c r="F53">
         <v>13</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>61.4</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>37.200000000000003</v>
       </c>
       <c r="J53">
@@ -7998,7 +9708,7 @@
       <c r="C54">
         <v>2187.8000000000002</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>79</v>
       </c>
       <c r="E54">
@@ -8007,10 +9717,10 @@
       <c r="F54">
         <v>15</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>68</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <v>22</v>
       </c>
       <c r="J54">
@@ -8046,7 +9756,7 @@
       <c r="C55">
         <v>2188</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>55.4</v>
       </c>
       <c r="E55">
@@ -8055,10 +9765,10 @@
       <c r="F55">
         <v>10</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>80</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>12.8</v>
       </c>
       <c r="J55">
@@ -8094,7 +9804,7 @@
       <c r="C56">
         <v>2191.6</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>106.6</v>
       </c>
       <c r="E56">
@@ -8103,10 +9813,10 @@
       <c r="F56">
         <v>20</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>96.6</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>46.8</v>
       </c>
       <c r="J56">
@@ -8142,7 +9852,7 @@
       <c r="C57">
         <v>2188.4</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>100.8</v>
       </c>
       <c r="E57">
@@ -8151,10 +9861,10 @@
       <c r="F57">
         <v>20</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>101.4</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>34</v>
       </c>
       <c r="J57">
@@ -8186,18 +9896,1637 @@
         <v>2230.8833333333337</v>
       </c>
     </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" t="s">
+        <v>11</v>
+      </c>
+      <c r="N65" t="s">
+        <v>12</v>
+      </c>
+      <c r="O65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>25.2</v>
+      </c>
+      <c r="C66">
+        <v>1364.6</v>
+      </c>
+      <c r="D66" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H66" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>25.2</v>
+      </c>
+      <c r="L66">
+        <v>1330.2</v>
+      </c>
+      <c r="M66">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <f>(C66+B66+K66+L66)/2</f>
+        <v>1372.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>50</v>
+      </c>
+      <c r="B67">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>1338.6</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>50</v>
+      </c>
+      <c r="K67">
+        <v>25.2</v>
+      </c>
+      <c r="L67">
+        <v>1333.4</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q77" si="2">(C67+B67+K67+L67)/2</f>
+        <v>1361.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <v>25.2</v>
+      </c>
+      <c r="C68">
+        <v>1333.6</v>
+      </c>
+      <c r="D68" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="E68">
+        <v>13</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="H68" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="J68">
+        <v>100</v>
+      </c>
+      <c r="K68">
+        <v>25</v>
+      </c>
+      <c r="L68">
+        <v>1349.4</v>
+      </c>
+      <c r="M68">
+        <v>13.2</v>
+      </c>
+      <c r="N68">
+        <v>13</v>
+      </c>
+      <c r="O68">
+        <v>8</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>1366.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>200</v>
+      </c>
+      <c r="B69">
+        <v>25.2</v>
+      </c>
+      <c r="C69">
+        <v>1334.4</v>
+      </c>
+      <c r="D69" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="E69">
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <v>13</v>
+      </c>
+      <c r="G69" s="2">
+        <v>20</v>
+      </c>
+      <c r="H69" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J69">
+        <v>200</v>
+      </c>
+      <c r="K69">
+        <v>25.2</v>
+      </c>
+      <c r="L69">
+        <v>1331.8</v>
+      </c>
+      <c r="M69">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N69">
+        <v>17</v>
+      </c>
+      <c r="O69">
+        <v>13</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="2"/>
+        <v>1358.3000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>300</v>
+      </c>
+      <c r="B70">
+        <v>24.4</v>
+      </c>
+      <c r="C70">
+        <v>1330.4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E70">
+        <v>27</v>
+      </c>
+      <c r="F70">
+        <v>21</v>
+      </c>
+      <c r="G70" s="2">
+        <v>32</v>
+      </c>
+      <c r="H70" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="J70">
+        <v>300</v>
+      </c>
+      <c r="K70">
+        <v>27</v>
+      </c>
+      <c r="L70">
+        <v>1323.8</v>
+      </c>
+      <c r="M70">
+        <v>13.8</v>
+      </c>
+      <c r="N70">
+        <v>26</v>
+      </c>
+      <c r="O70">
+        <v>21</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="2"/>
+        <v>1352.8000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>400</v>
+      </c>
+      <c r="B71">
+        <v>26.6</v>
+      </c>
+      <c r="C71">
+        <v>1333.8</v>
+      </c>
+      <c r="D71" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="E71">
+        <v>35</v>
+      </c>
+      <c r="F71">
+        <v>23</v>
+      </c>
+      <c r="G71" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="H71" s="2">
+        <v>28</v>
+      </c>
+      <c r="J71">
+        <v>400</v>
+      </c>
+      <c r="K71">
+        <v>26.2</v>
+      </c>
+      <c r="L71">
+        <v>1331.8</v>
+      </c>
+      <c r="M71">
+        <v>28</v>
+      </c>
+      <c r="N71">
+        <v>35</v>
+      </c>
+      <c r="O71">
+        <v>23</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="2"/>
+        <v>1359.1999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>500</v>
+      </c>
+      <c r="B72">
+        <v>25.2</v>
+      </c>
+      <c r="C72">
+        <v>1334</v>
+      </c>
+      <c r="D72" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="E72">
+        <v>46</v>
+      </c>
+      <c r="F72">
+        <v>34</v>
+      </c>
+      <c r="G72" s="2">
+        <v>52.4</v>
+      </c>
+      <c r="H72" s="2">
+        <v>45</v>
+      </c>
+      <c r="J72">
+        <v>500</v>
+      </c>
+      <c r="K72">
+        <v>25</v>
+      </c>
+      <c r="L72">
+        <v>1332.4</v>
+      </c>
+      <c r="M72">
+        <v>45</v>
+      </c>
+      <c r="N72">
+        <v>45</v>
+      </c>
+      <c r="O72">
+        <v>34</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="2"/>
+        <v>1358.3000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>600</v>
+      </c>
+      <c r="B73">
+        <v>24.8</v>
+      </c>
+      <c r="C73">
+        <v>1331.8</v>
+      </c>
+      <c r="D73" s="1">
+        <v>116.2</v>
+      </c>
+      <c r="E73">
+        <v>67</v>
+      </c>
+      <c r="F73">
+        <v>47</v>
+      </c>
+      <c r="G73" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H73" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="J73">
+        <v>600</v>
+      </c>
+      <c r="K73">
+        <v>26.8</v>
+      </c>
+      <c r="L73">
+        <v>1329.2</v>
+      </c>
+      <c r="M73">
+        <v>69.2</v>
+      </c>
+      <c r="N73">
+        <v>67</v>
+      </c>
+      <c r="O73">
+        <v>47</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="2"/>
+        <v>1356.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>700</v>
+      </c>
+      <c r="B74">
+        <v>25.2</v>
+      </c>
+      <c r="C74">
+        <v>1331.8</v>
+      </c>
+      <c r="D74" s="1">
+        <v>117.6</v>
+      </c>
+      <c r="E74">
+        <v>69</v>
+      </c>
+      <c r="F74">
+        <v>47</v>
+      </c>
+      <c r="G74" s="2">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="H74" s="2">
+        <v>62</v>
+      </c>
+      <c r="J74">
+        <v>700</v>
+      </c>
+      <c r="K74">
+        <v>25.8</v>
+      </c>
+      <c r="L74">
+        <v>1329.8</v>
+      </c>
+      <c r="M74">
+        <v>62</v>
+      </c>
+      <c r="N74">
+        <v>68</v>
+      </c>
+      <c r="O74">
+        <v>47</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="2"/>
+        <v>1356.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>800</v>
+      </c>
+      <c r="B75">
+        <v>25.4</v>
+      </c>
+      <c r="C75">
+        <v>1362.8</v>
+      </c>
+      <c r="D75" s="1">
+        <v>91</v>
+      </c>
+      <c r="E75">
+        <v>50</v>
+      </c>
+      <c r="F75">
+        <v>37</v>
+      </c>
+      <c r="G75" s="2">
+        <v>81</v>
+      </c>
+      <c r="H75" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="J75">
+        <v>800</v>
+      </c>
+      <c r="K75">
+        <v>25.4</v>
+      </c>
+      <c r="L75">
+        <v>1328.6</v>
+      </c>
+      <c r="M75">
+        <v>37.6</v>
+      </c>
+      <c r="N75">
+        <v>49</v>
+      </c>
+      <c r="O75">
+        <v>37</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="2"/>
+        <v>1371.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>900</v>
+      </c>
+      <c r="B76">
+        <v>25.6</v>
+      </c>
+      <c r="C76">
+        <v>1343.6</v>
+      </c>
+      <c r="D76" s="1">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="E76">
+        <v>74</v>
+      </c>
+      <c r="F76">
+        <v>58</v>
+      </c>
+      <c r="G76" s="2">
+        <v>91.6</v>
+      </c>
+      <c r="H76" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76">
+        <v>900</v>
+      </c>
+      <c r="K76">
+        <v>26</v>
+      </c>
+      <c r="L76">
+        <v>1337.2</v>
+      </c>
+      <c r="M76">
+        <v>76</v>
+      </c>
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76">
+        <v>58</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="2"/>
+        <v>1366.1999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1000</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>1340.2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>148</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77">
+        <v>75</v>
+      </c>
+      <c r="G77" s="2">
+        <v>104.8</v>
+      </c>
+      <c r="H77" s="2">
+        <v>70</v>
+      </c>
+      <c r="J77">
+        <v>1000</v>
+      </c>
+      <c r="K77">
+        <v>25.4</v>
+      </c>
+      <c r="L77">
+        <v>1329.4</v>
+      </c>
+      <c r="M77">
+        <v>70</v>
+      </c>
+      <c r="N77">
+        <v>100</v>
+      </c>
+      <c r="O77">
+        <v>75</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="2"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P78">
+        <f>AVERAGE(Q66:Q77)</f>
+        <v>1361.5666666666666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="I82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>2</v>
+      </c>
+      <c r="L83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>12633.4</v>
+      </c>
+      <c r="C84">
+        <v>1.2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>39506.199999999997</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>50</v>
+      </c>
+      <c r="B85">
+        <v>12729.2</v>
+      </c>
+      <c r="C85">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>50</v>
+      </c>
+      <c r="J85">
+        <v>39559.199999999997</v>
+      </c>
+      <c r="K85">
+        <v>5.2</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>100</v>
+      </c>
+      <c r="B86">
+        <v>12719.2</v>
+      </c>
+      <c r="C86">
+        <v>10.8</v>
+      </c>
+      <c r="D86" s="1">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>100</v>
+      </c>
+      <c r="J86">
+        <v>39517.599999999999</v>
+      </c>
+      <c r="K86">
+        <v>12</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>200</v>
+      </c>
+      <c r="B87">
+        <v>12684.6</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87" s="1">
+        <v>13</v>
+      </c>
+      <c r="I87">
+        <v>200</v>
+      </c>
+      <c r="J87">
+        <v>39417.199999999997</v>
+      </c>
+      <c r="K87">
+        <v>25.8</v>
+      </c>
+      <c r="L87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>300</v>
+      </c>
+      <c r="B88">
+        <v>12693.2</v>
+      </c>
+      <c r="C88">
+        <v>32</v>
+      </c>
+      <c r="D88" s="1">
+        <v>21</v>
+      </c>
+      <c r="I88">
+        <v>300</v>
+      </c>
+      <c r="J88">
+        <v>39721.4</v>
+      </c>
+      <c r="K88">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="L88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>400</v>
+      </c>
+      <c r="B89">
+        <v>12705.6</v>
+      </c>
+      <c r="C89">
+        <v>42.2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>22</v>
+      </c>
+      <c r="I89">
+        <v>400</v>
+      </c>
+      <c r="J89">
+        <v>39522.800000000003</v>
+      </c>
+      <c r="K89">
+        <v>53.2</v>
+      </c>
+      <c r="L89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>500</v>
+      </c>
+      <c r="B90">
+        <v>12646</v>
+      </c>
+      <c r="C90">
+        <v>52.4</v>
+      </c>
+      <c r="D90" s="1">
+        <v>34</v>
+      </c>
+      <c r="I90">
+        <v>500</v>
+      </c>
+      <c r="J90">
+        <v>39480.800000000003</v>
+      </c>
+      <c r="K90">
+        <v>56.4</v>
+      </c>
+      <c r="L90">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>600</v>
+      </c>
+      <c r="B91">
+        <v>12618.6</v>
+      </c>
+      <c r="C91">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D91" s="1">
+        <v>43</v>
+      </c>
+      <c r="I91">
+        <v>600</v>
+      </c>
+      <c r="J91">
+        <v>39495.4</v>
+      </c>
+      <c r="K91">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="L91">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>700</v>
+      </c>
+      <c r="B92">
+        <v>12660</v>
+      </c>
+      <c r="C92">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45</v>
+      </c>
+      <c r="I92">
+        <v>700</v>
+      </c>
+      <c r="J92">
+        <v>39571.599999999999</v>
+      </c>
+      <c r="K92">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="L92">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>800</v>
+      </c>
+      <c r="B93">
+        <v>12603</v>
+      </c>
+      <c r="C93">
+        <v>81</v>
+      </c>
+      <c r="D93" s="1">
+        <v>36</v>
+      </c>
+      <c r="I93">
+        <v>800</v>
+      </c>
+      <c r="J93">
+        <v>39572.800000000003</v>
+      </c>
+      <c r="K93">
+        <v>83</v>
+      </c>
+      <c r="L93">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>900</v>
+      </c>
+      <c r="B94">
+        <v>12641.4</v>
+      </c>
+      <c r="C94">
+        <v>91.6</v>
+      </c>
+      <c r="D94" s="1">
+        <v>57</v>
+      </c>
+      <c r="I94">
+        <v>900</v>
+      </c>
+      <c r="J94">
+        <v>39636.199999999997</v>
+      </c>
+      <c r="K94">
+        <v>108</v>
+      </c>
+      <c r="L94">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>1000</v>
+      </c>
+      <c r="B95">
+        <v>12623.4</v>
+      </c>
+      <c r="C95">
+        <v>104.8</v>
+      </c>
+      <c r="D95" s="1">
+        <v>75</v>
+      </c>
+      <c r="I95">
+        <v>1000</v>
+      </c>
+      <c r="J95">
+        <v>39463.199999999997</v>
+      </c>
+      <c r="K95">
+        <v>115.2</v>
+      </c>
+      <c r="L95">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B96">
+        <f>AVERAGE(B84:B95)</f>
+        <v>12663.133333333333</v>
+      </c>
+      <c r="J96">
+        <f>AVERAGE(J84:J95)</f>
+        <v>39538.700000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J99" t="s">
+        <v>8</v>
+      </c>
+      <c r="K99" t="s">
+        <v>9</v>
+      </c>
+      <c r="L99" t="s">
+        <v>10</v>
+      </c>
+      <c r="M99" t="s">
+        <v>11</v>
+      </c>
+      <c r="N99" t="s">
+        <v>12</v>
+      </c>
+      <c r="O99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>55.6</v>
+      </c>
+      <c r="C100">
+        <v>4432.2</v>
+      </c>
+      <c r="D100">
+        <v>2.4</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>10</v>
+      </c>
+      <c r="K100">
+        <v>56.4</v>
+      </c>
+      <c r="L100">
+        <v>4458.2</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <f>(C100+B100+K100+L100)/2</f>
+        <v>4501.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>50</v>
+      </c>
+      <c r="B101">
+        <v>55.4</v>
+      </c>
+      <c r="C101">
+        <v>4450.2</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>5.2</v>
+      </c>
+      <c r="H101">
+        <v>1.2</v>
+      </c>
+      <c r="J101">
+        <v>50</v>
+      </c>
+      <c r="K101">
+        <v>55.8</v>
+      </c>
+      <c r="L101">
+        <v>4427</v>
+      </c>
+      <c r="M101">
+        <v>1.2</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" ref="Q101:Q111" si="3">(C101+B101+K101+L101)/2</f>
+        <v>4494.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>55.8</v>
+      </c>
+      <c r="C102">
+        <v>4425.6000000000004</v>
+      </c>
+      <c r="D102">
+        <v>14.2</v>
+      </c>
+      <c r="E102">
+        <v>12</v>
+      </c>
+      <c r="F102">
+        <v>7</v>
+      </c>
+      <c r="G102">
+        <v>12</v>
+      </c>
+      <c r="H102">
+        <v>7</v>
+      </c>
+      <c r="J102">
+        <v>100</v>
+      </c>
+      <c r="K102">
+        <v>55.6</v>
+      </c>
+      <c r="L102">
+        <v>4407.3999999999996</v>
+      </c>
+      <c r="M102">
+        <v>7</v>
+      </c>
+      <c r="N102">
+        <v>12</v>
+      </c>
+      <c r="O102">
+        <v>7</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="3"/>
+        <v>4472.2000000000007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>200</v>
+      </c>
+      <c r="B103">
+        <v>56.6</v>
+      </c>
+      <c r="C103">
+        <v>4433.3999999999996</v>
+      </c>
+      <c r="D103">
+        <v>31</v>
+      </c>
+      <c r="E103">
+        <v>22</v>
+      </c>
+      <c r="F103">
+        <v>14</v>
+      </c>
+      <c r="G103">
+        <v>25.8</v>
+      </c>
+      <c r="H103">
+        <v>16.2</v>
+      </c>
+      <c r="J103">
+        <v>200</v>
+      </c>
+      <c r="K103">
+        <v>55.8</v>
+      </c>
+      <c r="L103">
+        <v>4400</v>
+      </c>
+      <c r="M103">
+        <v>16.2</v>
+      </c>
+      <c r="N103">
+        <v>22</v>
+      </c>
+      <c r="O103">
+        <v>14</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="3"/>
+        <v>4472.8999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>300</v>
+      </c>
+      <c r="B104">
+        <v>55.6</v>
+      </c>
+      <c r="C104">
+        <v>4400.2</v>
+      </c>
+      <c r="D104">
+        <v>44</v>
+      </c>
+      <c r="E104">
+        <v>25</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H104">
+        <v>26</v>
+      </c>
+      <c r="J104">
+        <v>300</v>
+      </c>
+      <c r="K104">
+        <v>56.6</v>
+      </c>
+      <c r="L104">
+        <v>4419.6000000000004</v>
+      </c>
+      <c r="M104">
+        <v>26</v>
+      </c>
+      <c r="N104">
+        <v>25</v>
+      </c>
+      <c r="O104">
+        <v>18</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="3"/>
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>400</v>
+      </c>
+      <c r="B105">
+        <v>56.6</v>
+      </c>
+      <c r="C105">
+        <v>4425.3999999999996</v>
+      </c>
+      <c r="D105">
+        <v>67.2</v>
+      </c>
+      <c r="E105">
+        <v>31</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105">
+        <v>53.2</v>
+      </c>
+      <c r="H105">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J105">
+        <v>400</v>
+      </c>
+      <c r="K105">
+        <v>55.4</v>
+      </c>
+      <c r="L105">
+        <v>4425.2</v>
+      </c>
+      <c r="M105">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="N105">
+        <v>31</v>
+      </c>
+      <c r="O105">
+        <v>18</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="3"/>
+        <v>4481.2999999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>500</v>
+      </c>
+      <c r="B106">
+        <v>55.6</v>
+      </c>
+      <c r="C106">
+        <v>4430.3999999999996</v>
+      </c>
+      <c r="D106">
+        <v>58.8</v>
+      </c>
+      <c r="E106">
+        <v>43</v>
+      </c>
+      <c r="F106">
+        <v>27</v>
+      </c>
+      <c r="G106">
+        <v>56.4</v>
+      </c>
+      <c r="H106">
+        <v>19.2</v>
+      </c>
+      <c r="J106">
+        <v>500</v>
+      </c>
+      <c r="K106">
+        <v>56.8</v>
+      </c>
+      <c r="L106">
+        <v>4400.2</v>
+      </c>
+      <c r="M106">
+        <v>19.2</v>
+      </c>
+      <c r="N106">
+        <v>43</v>
+      </c>
+      <c r="O106">
+        <v>27</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="3"/>
+        <v>4471.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>600</v>
+      </c>
+      <c r="B107">
+        <v>55.6</v>
+      </c>
+      <c r="C107">
+        <v>4414.8</v>
+      </c>
+      <c r="D107">
+        <v>115</v>
+      </c>
+      <c r="E107">
+        <v>65</v>
+      </c>
+      <c r="F107">
+        <v>39</v>
+      </c>
+      <c r="G107">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H107">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="J107">
+        <v>600</v>
+      </c>
+      <c r="K107">
+        <v>55.8</v>
+      </c>
+      <c r="L107">
+        <v>4398.6000000000004</v>
+      </c>
+      <c r="M107">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="N107">
+        <v>65</v>
+      </c>
+      <c r="O107">
+        <v>39</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="3"/>
+        <v>4462.4000000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>700</v>
+      </c>
+      <c r="B108">
+        <v>55</v>
+      </c>
+      <c r="C108">
+        <v>4432</v>
+      </c>
+      <c r="D108">
+        <v>104</v>
+      </c>
+      <c r="E108">
+        <v>73</v>
+      </c>
+      <c r="F108">
+        <v>41</v>
+      </c>
+      <c r="G108">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="H108">
+        <v>56.4</v>
+      </c>
+      <c r="J108">
+        <v>700</v>
+      </c>
+      <c r="K108">
+        <v>55.6</v>
+      </c>
+      <c r="L108">
+        <v>4427.2</v>
+      </c>
+      <c r="M108">
+        <v>56.4</v>
+      </c>
+      <c r="N108">
+        <v>73</v>
+      </c>
+      <c r="O108">
+        <v>41</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="3"/>
+        <v>4484.8999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>800</v>
+      </c>
+      <c r="B109">
+        <v>56.2</v>
+      </c>
+      <c r="C109">
+        <v>4444.3999999999996</v>
+      </c>
+      <c r="D109">
+        <v>86</v>
+      </c>
+      <c r="E109">
+        <v>57</v>
+      </c>
+      <c r="F109">
+        <v>36</v>
+      </c>
+      <c r="G109">
+        <v>83</v>
+      </c>
+      <c r="H109">
+        <v>36.6</v>
+      </c>
+      <c r="J109">
+        <v>800</v>
+      </c>
+      <c r="K109">
+        <v>56.4</v>
+      </c>
+      <c r="L109">
+        <v>4420</v>
+      </c>
+      <c r="M109">
+        <v>36.6</v>
+      </c>
+      <c r="N109">
+        <v>57</v>
+      </c>
+      <c r="O109">
+        <v>36</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="3"/>
+        <v>4488.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>900</v>
+      </c>
+      <c r="B110">
+        <v>55.4</v>
+      </c>
+      <c r="C110">
+        <v>4419.2</v>
+      </c>
+      <c r="D110">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="E110">
+        <v>83</v>
+      </c>
+      <c r="F110">
+        <v>64</v>
+      </c>
+      <c r="G110">
+        <v>108</v>
+      </c>
+      <c r="H110">
+        <v>79.2</v>
+      </c>
+      <c r="J110">
+        <v>900</v>
+      </c>
+      <c r="K110">
+        <v>55.6</v>
+      </c>
+      <c r="L110">
+        <v>4415</v>
+      </c>
+      <c r="M110">
+        <v>79.2</v>
+      </c>
+      <c r="N110">
+        <v>83</v>
+      </c>
+      <c r="O110">
+        <v>64</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="3"/>
+        <v>4472.6000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>1000</v>
+      </c>
+      <c r="B111">
+        <v>55.4</v>
+      </c>
+      <c r="C111">
+        <v>4421.2</v>
+      </c>
+      <c r="D111">
+        <v>132.6</v>
+      </c>
+      <c r="E111">
+        <v>93</v>
+      </c>
+      <c r="F111">
+        <v>59</v>
+      </c>
+      <c r="G111">
+        <v>115.2</v>
+      </c>
+      <c r="H111">
+        <v>56.4</v>
+      </c>
+      <c r="J111">
+        <v>1000</v>
+      </c>
+      <c r="K111">
+        <v>56</v>
+      </c>
+      <c r="L111">
+        <v>4408.3999999999996</v>
+      </c>
+      <c r="M111">
+        <v>56.4</v>
+      </c>
+      <c r="N111">
+        <v>93</v>
+      </c>
+      <c r="O111">
+        <v>59</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="3"/>
+        <v>4470.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P112">
+        <f>AVERAGE(Q100:Q111)</f>
+        <v>4478.1833333333334</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10513,6 +13842,193 @@
         <v>20</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>23246</v>
+      </c>
+      <c r="C87">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>50</v>
+      </c>
+      <c r="B88">
+        <v>23299.599999999999</v>
+      </c>
+      <c r="C88">
+        <v>12.2</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>100</v>
+      </c>
+      <c r="B89">
+        <v>23359.599999999999</v>
+      </c>
+      <c r="C89">
+        <v>24.4</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>200</v>
+      </c>
+      <c r="B90">
+        <v>23354</v>
+      </c>
+      <c r="C90">
+        <v>49</v>
+      </c>
+      <c r="D90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>300</v>
+      </c>
+      <c r="B91">
+        <v>23276</v>
+      </c>
+      <c r="C91">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="D91">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>400</v>
+      </c>
+      <c r="B92">
+        <v>23144.799999999999</v>
+      </c>
+      <c r="C92">
+        <v>92.4</v>
+      </c>
+      <c r="D92">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>500</v>
+      </c>
+      <c r="B93">
+        <v>22898</v>
+      </c>
+      <c r="C93">
+        <v>117.4</v>
+      </c>
+      <c r="D93">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>600</v>
+      </c>
+      <c r="B94">
+        <v>22928.6</v>
+      </c>
+      <c r="C94">
+        <v>140</v>
+      </c>
+      <c r="D94">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>700</v>
+      </c>
+      <c r="B95">
+        <v>23267.200000000001</v>
+      </c>
+      <c r="C95">
+        <v>165</v>
+      </c>
+      <c r="D95">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>800</v>
+      </c>
+      <c r="B96">
+        <v>23018.799999999999</v>
+      </c>
+      <c r="C96">
+        <v>184.8</v>
+      </c>
+      <c r="D96">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>900</v>
+      </c>
+      <c r="B97">
+        <v>23254.400000000001</v>
+      </c>
+      <c r="C97">
+        <v>213.8</v>
+      </c>
+      <c r="D97">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>1000</v>
+      </c>
+      <c r="B98">
+        <v>23287.8</v>
+      </c>
+      <c r="C98">
+        <v>235.4</v>
+      </c>
+      <c r="D98">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
